--- a/Jasper Files/data/test1.xlsx
+++ b/Jasper Files/data/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\masterproef\master-thesis-jasper-goris\Jasper Files\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3120217E-E78E-471D-866C-415A47711E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F0651B-FA16-4C5D-926A-B8EC6473D753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{54C49161-7C17-465B-AC22-CEB0536623D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{54C49161-7C17-465B-AC22-CEB0536623D9}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -922,19 +922,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -943,22 +943,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4509,7 +4509,7 @@
                   <c:v>0.23698606212856249</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.46663776786971539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4597,7 +4597,7 @@
                   <c:v>0.10634080687013921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.18222005424023111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4729,7 +4729,7 @@
                   <c:v>0.22643682052148506</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.45287404099872219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4857,7 +4857,7 @@
                   <c:v>9.5419950492214411E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.13952540499872157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13193,40 +13193,40 @@
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="33">
         <v>50</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="39">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="33">
         <v>100</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="39">
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="33">
         <v>250</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="39">
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="33">
         <v>500</v>
       </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="39">
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="33">
         <v>700</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
@@ -13237,19 +13237,19 @@
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="35">
         <v>50</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="38"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="35">
         <v>100</v>
       </c>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
+      <c r="N4" s="38"/>
       <c r="O4" s="35">
         <v>200</v>
       </c>
@@ -13262,49 +13262,49 @@
       <c r="T4" s="36"/>
       <c r="U4" s="36"/>
       <c r="V4" s="36"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
     </row>
     <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>2</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="31">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="30">
         <v>5</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="31">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="30">
         <v>8</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="31">
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="30">
         <v>10</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="31">
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="30">
         <v>20</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="24"/>
@@ -20275,40 +20275,40 @@
       <c r="B117" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="39">
+      <c r="C117" s="33">
         <v>50</v>
       </c>
-      <c r="D117" s="40"/>
-      <c r="E117" s="40"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="39">
+      <c r="D117" s="34"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="33">
         <v>100</v>
       </c>
-      <c r="H117" s="40"/>
-      <c r="I117" s="40"/>
-      <c r="J117" s="42"/>
-      <c r="K117" s="39">
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
+      <c r="J117" s="40"/>
+      <c r="K117" s="33">
         <v>250</v>
       </c>
-      <c r="L117" s="40"/>
-      <c r="M117" s="40"/>
-      <c r="N117" s="41"/>
-      <c r="O117" s="39">
+      <c r="L117" s="34"/>
+      <c r="M117" s="34"/>
+      <c r="N117" s="37"/>
+      <c r="O117" s="33">
         <v>500</v>
       </c>
-      <c r="P117" s="40"/>
-      <c r="Q117" s="40"/>
-      <c r="R117" s="40"/>
-      <c r="S117" s="39">
+      <c r="P117" s="34"/>
+      <c r="Q117" s="34"/>
+      <c r="R117" s="34"/>
+      <c r="S117" s="33">
         <v>700</v>
       </c>
-      <c r="T117" s="40"/>
-      <c r="U117" s="40"/>
-      <c r="V117" s="40"/>
-      <c r="W117" s="30"/>
-      <c r="X117" s="30"/>
-      <c r="Y117" s="30"/>
-      <c r="Z117" s="30"/>
+      <c r="T117" s="34"/>
+      <c r="U117" s="34"/>
+      <c r="V117" s="34"/>
+      <c r="W117" s="32"/>
+      <c r="X117" s="32"/>
+      <c r="Y117" s="32"/>
+      <c r="Z117" s="32"/>
     </row>
     <row r="118" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
@@ -20319,19 +20319,19 @@
       </c>
       <c r="D118" s="36"/>
       <c r="E118" s="36"/>
-      <c r="F118" s="37"/>
+      <c r="F118" s="38"/>
       <c r="G118" s="35">
         <v>50</v>
       </c>
       <c r="H118" s="36"/>
       <c r="I118" s="36"/>
-      <c r="J118" s="38"/>
+      <c r="J118" s="41"/>
       <c r="K118" s="35">
         <v>100</v>
       </c>
       <c r="L118" s="36"/>
       <c r="M118" s="36"/>
-      <c r="N118" s="37"/>
+      <c r="N118" s="38"/>
       <c r="O118" s="35">
         <v>200</v>
       </c>
@@ -20344,49 +20344,49 @@
       <c r="T118" s="36"/>
       <c r="U118" s="36"/>
       <c r="V118" s="36"/>
-      <c r="W118" s="30"/>
-      <c r="X118" s="30"/>
-      <c r="Y118" s="30"/>
-      <c r="Z118" s="30"/>
+      <c r="W118" s="32"/>
+      <c r="X118" s="32"/>
+      <c r="Y118" s="32"/>
+      <c r="Z118" s="32"/>
     </row>
     <row r="119" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="31">
+      <c r="C119" s="30">
         <v>2</v>
       </c>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="31">
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="30">
         <v>5</v>
       </c>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="31">
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="42"/>
+      <c r="K119" s="30">
         <v>8</v>
       </c>
-      <c r="L119" s="32"/>
-      <c r="M119" s="32"/>
-      <c r="N119" s="33"/>
-      <c r="O119" s="31">
+      <c r="L119" s="31"/>
+      <c r="M119" s="31"/>
+      <c r="N119" s="39"/>
+      <c r="O119" s="30">
         <v>10</v>
       </c>
-      <c r="P119" s="32"/>
-      <c r="Q119" s="32"/>
-      <c r="R119" s="32"/>
-      <c r="S119" s="31">
+      <c r="P119" s="31"/>
+      <c r="Q119" s="31"/>
+      <c r="R119" s="31"/>
+      <c r="S119" s="30">
         <v>20</v>
       </c>
-      <c r="T119" s="32"/>
-      <c r="U119" s="32"/>
-      <c r="V119" s="32"/>
-      <c r="W119" s="30"/>
-      <c r="X119" s="30"/>
-      <c r="Y119" s="30"/>
-      <c r="Z119" s="30"/>
+      <c r="T119" s="31"/>
+      <c r="U119" s="31"/>
+      <c r="V119" s="31"/>
+      <c r="W119" s="32"/>
+      <c r="X119" s="32"/>
+      <c r="Y119" s="32"/>
+      <c r="Z119" s="32"/>
     </row>
     <row r="120" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B120" s="24"/>
@@ -27328,24 +27328,12 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="W119:Z119"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="G119:J119"/>
+    <mergeCell ref="K119:N119"/>
+    <mergeCell ref="O119:R119"/>
+    <mergeCell ref="S119:V119"/>
     <mergeCell ref="W117:Z117"/>
     <mergeCell ref="C118:F118"/>
     <mergeCell ref="G118:J118"/>
@@ -27358,12 +27346,24 @@
     <mergeCell ref="K117:N117"/>
     <mergeCell ref="O117:R117"/>
     <mergeCell ref="S117:V117"/>
-    <mergeCell ref="W119:Z119"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="G119:J119"/>
-    <mergeCell ref="K119:N119"/>
-    <mergeCell ref="O119:R119"/>
-    <mergeCell ref="S119:V119"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27425,40 +27425,40 @@
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="33">
         <v>50</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="39">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="33">
         <v>100</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="39">
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="33">
         <v>250</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="39">
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="33">
         <v>500</v>
       </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="39">
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="33">
         <v>700</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
@@ -27469,19 +27469,19 @@
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="35">
         <v>50</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="38"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="35">
         <v>100</v>
       </c>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
+      <c r="N4" s="38"/>
       <c r="O4" s="35">
         <v>200</v>
       </c>
@@ -27494,49 +27494,49 @@
       <c r="T4" s="36"/>
       <c r="U4" s="36"/>
       <c r="V4" s="36"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
     </row>
     <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>2</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="31">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="30">
         <v>5</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="31">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="30">
         <v>8</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="31">
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="30">
         <v>10</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="31">
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="30">
         <v>20</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="24"/>
@@ -34492,40 +34492,40 @@
       <c r="B117" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="39">
+      <c r="C117" s="33">
         <v>50</v>
       </c>
-      <c r="D117" s="40"/>
-      <c r="E117" s="40"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="39">
+      <c r="D117" s="34"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="33">
         <v>100</v>
       </c>
-      <c r="H117" s="40"/>
-      <c r="I117" s="40"/>
-      <c r="J117" s="42"/>
-      <c r="K117" s="39">
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
+      <c r="J117" s="40"/>
+      <c r="K117" s="33">
         <v>250</v>
       </c>
-      <c r="L117" s="40"/>
-      <c r="M117" s="40"/>
-      <c r="N117" s="41"/>
-      <c r="O117" s="39">
+      <c r="L117" s="34"/>
+      <c r="M117" s="34"/>
+      <c r="N117" s="37"/>
+      <c r="O117" s="33">
         <v>500</v>
       </c>
-      <c r="P117" s="40"/>
-      <c r="Q117" s="40"/>
-      <c r="R117" s="40"/>
-      <c r="S117" s="39">
+      <c r="P117" s="34"/>
+      <c r="Q117" s="34"/>
+      <c r="R117" s="34"/>
+      <c r="S117" s="33">
         <v>700</v>
       </c>
-      <c r="T117" s="40"/>
-      <c r="U117" s="40"/>
-      <c r="V117" s="40"/>
-      <c r="W117" s="30"/>
-      <c r="X117" s="30"/>
-      <c r="Y117" s="30"/>
-      <c r="Z117" s="30"/>
+      <c r="T117" s="34"/>
+      <c r="U117" s="34"/>
+      <c r="V117" s="34"/>
+      <c r="W117" s="32"/>
+      <c r="X117" s="32"/>
+      <c r="Y117" s="32"/>
+      <c r="Z117" s="32"/>
     </row>
     <row r="118" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
@@ -34536,19 +34536,19 @@
       </c>
       <c r="D118" s="36"/>
       <c r="E118" s="36"/>
-      <c r="F118" s="37"/>
+      <c r="F118" s="38"/>
       <c r="G118" s="35">
         <v>50</v>
       </c>
       <c r="H118" s="36"/>
       <c r="I118" s="36"/>
-      <c r="J118" s="38"/>
+      <c r="J118" s="41"/>
       <c r="K118" s="35">
         <v>100</v>
       </c>
       <c r="L118" s="36"/>
       <c r="M118" s="36"/>
-      <c r="N118" s="37"/>
+      <c r="N118" s="38"/>
       <c r="O118" s="35">
         <v>200</v>
       </c>
@@ -34561,49 +34561,49 @@
       <c r="T118" s="36"/>
       <c r="U118" s="36"/>
       <c r="V118" s="36"/>
-      <c r="W118" s="30"/>
-      <c r="X118" s="30"/>
-      <c r="Y118" s="30"/>
-      <c r="Z118" s="30"/>
+      <c r="W118" s="32"/>
+      <c r="X118" s="32"/>
+      <c r="Y118" s="32"/>
+      <c r="Z118" s="32"/>
     </row>
     <row r="119" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="31">
+      <c r="C119" s="30">
         <v>2</v>
       </c>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="31">
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="30">
         <v>5</v>
       </c>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="31">
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="42"/>
+      <c r="K119" s="30">
         <v>8</v>
       </c>
-      <c r="L119" s="32"/>
-      <c r="M119" s="32"/>
-      <c r="N119" s="33"/>
-      <c r="O119" s="31">
+      <c r="L119" s="31"/>
+      <c r="M119" s="31"/>
+      <c r="N119" s="39"/>
+      <c r="O119" s="30">
         <v>10</v>
       </c>
-      <c r="P119" s="32"/>
-      <c r="Q119" s="32"/>
-      <c r="R119" s="32"/>
-      <c r="S119" s="31">
+      <c r="P119" s="31"/>
+      <c r="Q119" s="31"/>
+      <c r="R119" s="31"/>
+      <c r="S119" s="30">
         <v>20</v>
       </c>
-      <c r="T119" s="32"/>
-      <c r="U119" s="32"/>
-      <c r="V119" s="32"/>
-      <c r="W119" s="30"/>
-      <c r="X119" s="30"/>
-      <c r="Y119" s="30"/>
-      <c r="Z119" s="30"/>
+      <c r="T119" s="31"/>
+      <c r="U119" s="31"/>
+      <c r="V119" s="31"/>
+      <c r="W119" s="32"/>
+      <c r="X119" s="32"/>
+      <c r="Y119" s="32"/>
+      <c r="Z119" s="32"/>
     </row>
     <row r="120" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B120" s="24"/>
@@ -41545,12 +41545,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W119:Z119"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="G119:J119"/>
+    <mergeCell ref="K119:N119"/>
+    <mergeCell ref="O119:R119"/>
+    <mergeCell ref="S119:V119"/>
+    <mergeCell ref="W117:Z117"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="G118:J118"/>
+    <mergeCell ref="K118:N118"/>
+    <mergeCell ref="O118:R118"/>
+    <mergeCell ref="S118:V118"/>
+    <mergeCell ref="W118:Z118"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="K117:N117"/>
+    <mergeCell ref="O117:R117"/>
+    <mergeCell ref="S117:V117"/>
     <mergeCell ref="W4:Z4"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:J3"/>
@@ -41563,24 +41575,12 @@
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W117:Z117"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="G118:J118"/>
-    <mergeCell ref="K118:N118"/>
-    <mergeCell ref="O118:R118"/>
-    <mergeCell ref="S118:V118"/>
-    <mergeCell ref="W118:Z118"/>
-    <mergeCell ref="C117:F117"/>
-    <mergeCell ref="G117:J117"/>
-    <mergeCell ref="K117:N117"/>
-    <mergeCell ref="O117:R117"/>
-    <mergeCell ref="S117:V117"/>
-    <mergeCell ref="W119:Z119"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="G119:J119"/>
-    <mergeCell ref="K119:N119"/>
-    <mergeCell ref="O119:R119"/>
-    <mergeCell ref="S119:V119"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41591,8 +41591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595D1A8C-CD26-4A70-AFE2-6492C1EC2434}">
   <dimension ref="B1:Z225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I204" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X229" sqref="X229"/>
+    <sheetView tabSelected="1" topLeftCell="O12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM31" sqref="AM31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41640,40 +41640,40 @@
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="33">
         <v>50</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="39">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="33">
         <v>100</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="39">
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="33">
         <v>250</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="39">
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="33">
         <v>500</v>
       </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="39">
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="33">
         <v>700</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
@@ -41684,19 +41684,19 @@
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="35">
         <v>50</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="38"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="35">
         <v>100</v>
       </c>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
+      <c r="N4" s="38"/>
       <c r="O4" s="35">
         <v>200</v>
       </c>
@@ -41709,49 +41709,49 @@
       <c r="T4" s="36"/>
       <c r="U4" s="36"/>
       <c r="V4" s="36"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
     </row>
     <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>2</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="31">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="30">
         <v>5</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="31">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="30">
         <v>8</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="31">
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="30">
         <v>10</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="31">
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="30">
         <v>20</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="24"/>
@@ -41940,16 +41940,16 @@
         <v>255810</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.43444019300000042</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>347889</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>776185</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>428296</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -42005,16 +42005,16 @@
         <v>256298</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.53298919199983175</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>349305</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>778089</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -42070,16 +42070,16 @@
         <v>256298</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.43938044600008652</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>349046</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>777806</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -42135,16 +42135,16 @@
         <v>256274</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.43895957799986718</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>347698</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>776458</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -42200,16 +42200,16 @@
         <v>256298</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.43670355800031763</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>350306</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>779066</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -42265,16 +42265,16 @@
         <v>256298</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.45109545000013901</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>347204</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>775988</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -42330,16 +42330,16 @@
         <v>256298</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.43599690800056118</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>352498</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>781258</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -42395,16 +42395,16 @@
         <v>256298</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.54910235199986346</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>346902</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>775686</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -42460,16 +42460,16 @@
         <v>256298</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.51759805100027734</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>348282</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>777066</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
@@ -42525,16 +42525,16 @@
         <v>256298</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.56178349200035882</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>349698</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>778482</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
@@ -42590,16 +42590,16 @@
         <v>256274</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.44039024399899063</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>350282</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>779066</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
@@ -42655,16 +42655,16 @@
         <v>256298</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.50062320100005309</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>344986</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>773746</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
@@ -42720,16 +42720,16 @@
         <v>256298</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>0.55862311700002465</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>347042</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>775826</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
@@ -42785,16 +42785,16 @@
         <v>256298</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>0.53720213300039177</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>348690</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>777474</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
@@ -42850,16 +42850,16 @@
         <v>256298</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>0.44492954999986978</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>351990</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>780750</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
@@ -42915,16 +42915,16 @@
         <v>256298</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>0.43653318999895419</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>344698</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>773482</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
@@ -42980,16 +42980,16 @@
         <v>256298</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>0.43150783300006879</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>347646</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>776406</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
@@ -43045,16 +43045,16 @@
         <v>256298</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>0.48630797499936312</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>347682</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>776466</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
@@ -43110,16 +43110,16 @@
         <v>256298</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>0.43699562900110323</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>352210</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>780970</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
@@ -43175,16 +43175,16 @@
         <v>256298</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>0.44312977699883049</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>348294</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>777054</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
@@ -43240,16 +43240,16 @@
         <v>256298</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>0.45651733599879663</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>347678</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>776438</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
@@ -43305,16 +43305,16 @@
         <v>256298</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>0.47164240300116939</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>348042</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>776802</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
@@ -43370,16 +43370,16 @@
         <v>256298</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>0.49372570600098697</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>344770</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>773530</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
@@ -43435,16 +43435,16 @@
         <v>256274</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>0.43424121000134619</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>348342</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>777102</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
@@ -43500,16 +43500,16 @@
         <v>256298</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>0.56420364600126049</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>350206</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>778990</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
@@ -43565,16 +43565,16 @@
         <v>256274</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>0.51938060400061659</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>346790</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>775574</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
@@ -43630,16 +43630,16 @@
         <v>256298</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>0.49235700099961832</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>347726</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>776486</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
@@ -43695,16 +43695,16 @@
         <v>256298</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>0.45801758199741022</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>349566</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>778326</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
@@ -43760,16 +43760,16 @@
         <v>256298</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>0.56907729399972595</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>349286</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>778046</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
@@ -43825,16 +43825,16 @@
         <v>256298</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>0.4499348569988797</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>347982</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>776742</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
@@ -43890,16 +43890,16 @@
         <v>256298</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>0.4526718039996922</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>351274</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>780034</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
@@ -43955,16 +43955,16 @@
         <v>256298</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>0.51799140799994348</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>347594</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>776378</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
@@ -44020,16 +44020,16 @@
         <v>256298</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>0.54095016499923076</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>348698</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>777482</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
@@ -44085,16 +44085,16 @@
         <v>256298</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>0.43329712400009163</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>345250</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>774034</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
@@ -44150,16 +44150,16 @@
         <v>256298</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>0.44462971000029938</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>351342</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>780126</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
@@ -44215,16 +44215,16 @@
         <v>256298</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>0.49991157200202002</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>347726</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>776486</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
@@ -44280,16 +44280,16 @@
         <v>256298</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>0.45307627799775219</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>347318</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>776102</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
@@ -44345,16 +44345,16 @@
         <v>256298</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>0.43643554799928103</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>348774</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>777534</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
@@ -44410,16 +44410,16 @@
         <v>256298</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>0.43790462299875799</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>344970</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>773730</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
@@ -44475,16 +44475,16 @@
         <v>256298</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>0.45642389899876429</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>350378</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>779138</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
@@ -44540,16 +44540,16 @@
         <v>256298</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>0.47464856399892602</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>348926</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>777710</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
@@ -44605,16 +44605,16 @@
         <v>256274</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>0.46826648400019621</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>348030</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>776790</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
@@ -44670,16 +44670,16 @@
         <v>256298</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>0.4517346870052279</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>348174</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>776958</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
@@ -44735,16 +44735,16 @@
         <v>256274</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>0.45227715999499202</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>347370</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>776130</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
@@ -44800,16 +44800,16 @@
         <v>256298</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>0.49663493099797051</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>346562</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>775346</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
@@ -44865,16 +44865,16 @@
         <v>256298</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>0.42891051399783459</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>346174</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>774934</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
@@ -44930,16 +44930,16 @@
         <v>256274</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>0.45926744199823588</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>342290</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>771050</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
@@ -44995,16 +44995,16 @@
         <v>256298</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>0.45450283299578592</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>347870</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>776630</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
@@ -45060,16 +45060,16 @@
         <v>256274</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>0.44431327300117118</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>347526</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>776310</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
@@ -45125,16 +45125,16 @@
         <v>256274</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>0.46492384200246312</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>345366</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>774150</v>
       </c>
       <c r="V57">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
@@ -45190,16 +45190,16 @@
         <v>256298</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>0.42972836999979341</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>347970</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>776730</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
@@ -45255,16 +45255,16 @@
         <v>256298</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>0.44541317500261363</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>348446</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>777206</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
@@ -45320,16 +45320,16 @@
         <v>256298</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>0.45933781700296089</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>346882</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>775666</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
@@ -45385,16 +45385,16 @@
         <v>256298</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>0.49572596399957553</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>351582</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>780366</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
@@ -45450,16 +45450,16 @@
         <v>256298</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>0.44567893000203179</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>344770</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>773530</v>
       </c>
       <c r="V62">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.25">
@@ -45515,16 +45515,16 @@
         <v>256298</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>0.46332301900110912</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>350830</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>779614</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
@@ -45580,16 +45580,16 @@
         <v>256298</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>0.43774619900068501</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>345490</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>774274</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.25">
@@ -45645,16 +45645,16 @@
         <v>256298</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>0.43804646799981128</v>
       </c>
       <c r="T65">
-        <v>0</v>
+        <v>352498</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>781282</v>
       </c>
       <c r="V65">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.25">
@@ -45710,16 +45710,16 @@
         <v>256298</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>0.48943466399941832</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>347390</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>776174</v>
       </c>
       <c r="V66">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.25">
@@ -45775,16 +45775,16 @@
         <v>256274</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>0.43958808499883162</v>
       </c>
       <c r="T67">
-        <v>0</v>
+        <v>347302</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>776062</v>
       </c>
       <c r="V67">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.25">
@@ -45840,16 +45840,16 @@
         <v>256298</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>0.5734047890000511</v>
       </c>
       <c r="T68">
-        <v>0</v>
+        <v>349034</v>
       </c>
       <c r="U68">
-        <v>0</v>
+        <v>777794</v>
       </c>
       <c r="V68">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.25">
@@ -45905,16 +45905,16 @@
         <v>256298</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>0.46229707900056383</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>349454</v>
       </c>
       <c r="U69">
-        <v>0</v>
+        <v>778214</v>
       </c>
       <c r="V69">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.25">
@@ -45970,16 +45970,16 @@
         <v>256274</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>0.42231522800284438</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>350598</v>
       </c>
       <c r="U70">
-        <v>0</v>
+        <v>779382</v>
       </c>
       <c r="V70">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.25">
@@ -46035,16 +46035,16 @@
         <v>256298</v>
       </c>
       <c r="S71">
-        <v>0</v>
+        <v>0.4589311249947059</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>347402</v>
       </c>
       <c r="U71">
-        <v>0</v>
+        <v>776162</v>
       </c>
       <c r="V71">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.25">
@@ -46100,16 +46100,16 @@
         <v>256274</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>0.41994970600353548</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>346842</v>
       </c>
       <c r="U72">
-        <v>0</v>
+        <v>775602</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.25">
@@ -46165,16 +46165,16 @@
         <v>256274</v>
       </c>
       <c r="S73">
-        <v>0</v>
+        <v>0.44320142200012919</v>
       </c>
       <c r="T73">
-        <v>0</v>
+        <v>350014</v>
       </c>
       <c r="U73">
-        <v>0</v>
+        <v>778798</v>
       </c>
       <c r="V73">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.25">
@@ -46230,16 +46230,16 @@
         <v>256298</v>
       </c>
       <c r="S74">
-        <v>0</v>
+        <v>0.42465417399944272</v>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>348258</v>
       </c>
       <c r="U74">
-        <v>0</v>
+        <v>777018</v>
       </c>
       <c r="V74">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.25">
@@ -46295,16 +46295,16 @@
         <v>256298</v>
       </c>
       <c r="S75">
-        <v>0</v>
+        <v>0.41405929000029568</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>345230</v>
       </c>
       <c r="U75">
-        <v>0</v>
+        <v>773990</v>
       </c>
       <c r="V75">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.25">
@@ -46360,16 +46360,16 @@
         <v>256298</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>0.43117497400089633</v>
       </c>
       <c r="T76">
-        <v>0</v>
+        <v>347266</v>
       </c>
       <c r="U76">
-        <v>0</v>
+        <v>776026</v>
       </c>
       <c r="V76">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.25">
@@ -46425,16 +46425,16 @@
         <v>256298</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>0.48817850500199711</v>
       </c>
       <c r="T77">
-        <v>0</v>
+        <v>351250</v>
       </c>
       <c r="U77">
-        <v>0</v>
+        <v>780010</v>
       </c>
       <c r="V77">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.25">
@@ -46490,16 +46490,16 @@
         <v>256298</v>
       </c>
       <c r="S78">
-        <v>0</v>
+        <v>0.44988954500149703</v>
       </c>
       <c r="T78">
-        <v>0</v>
+        <v>346570</v>
       </c>
       <c r="U78">
-        <v>0</v>
+        <v>775330</v>
       </c>
       <c r="V78">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.25">
@@ -46555,16 +46555,16 @@
         <v>256298</v>
       </c>
       <c r="S79">
-        <v>0</v>
+        <v>0.45101819899718981</v>
       </c>
       <c r="T79">
-        <v>0</v>
+        <v>347646</v>
       </c>
       <c r="U79">
-        <v>0</v>
+        <v>776406</v>
       </c>
       <c r="V79">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="80" spans="2:22" x14ac:dyDescent="0.25">
@@ -46620,16 +46620,16 @@
         <v>256298</v>
       </c>
       <c r="S80">
-        <v>0</v>
+        <v>0.45398867100448109</v>
       </c>
       <c r="T80">
-        <v>0</v>
+        <v>349206</v>
       </c>
       <c r="U80">
-        <v>0</v>
+        <v>777990</v>
       </c>
       <c r="V80">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="81" spans="2:22" x14ac:dyDescent="0.25">
@@ -46685,16 +46685,16 @@
         <v>256298</v>
       </c>
       <c r="S81">
-        <v>0</v>
+        <v>0.43982998000137741</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>348086</v>
       </c>
       <c r="U81">
-        <v>0</v>
+        <v>776870</v>
       </c>
       <c r="V81">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.25">
@@ -46750,16 +46750,16 @@
         <v>256298</v>
       </c>
       <c r="S82">
-        <v>0</v>
+        <v>0.50744083400059026</v>
       </c>
       <c r="T82">
-        <v>0</v>
+        <v>347866</v>
       </c>
       <c r="U82">
-        <v>0</v>
+        <v>776650</v>
       </c>
       <c r="V82">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="83" spans="2:22" x14ac:dyDescent="0.25">
@@ -46815,16 +46815,16 @@
         <v>256298</v>
       </c>
       <c r="S83">
-        <v>0</v>
+        <v>0.45710833100019949</v>
       </c>
       <c r="T83">
-        <v>0</v>
+        <v>344650</v>
       </c>
       <c r="U83">
-        <v>0</v>
+        <v>773410</v>
       </c>
       <c r="V83">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.25">
@@ -46880,16 +46880,16 @@
         <v>256274</v>
       </c>
       <c r="S84">
-        <v>0</v>
+        <v>0.42024542599392589</v>
       </c>
       <c r="T84">
-        <v>0</v>
+        <v>348138</v>
       </c>
       <c r="U84">
-        <v>0</v>
+        <v>776898</v>
       </c>
       <c r="V84">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.25">
@@ -46945,16 +46945,16 @@
         <v>256298</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>0.47404638300213259</v>
       </c>
       <c r="T85">
-        <v>0</v>
+        <v>346142</v>
       </c>
       <c r="U85">
-        <v>0</v>
+        <v>774902</v>
       </c>
       <c r="V85">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.25">
@@ -47010,16 +47010,16 @@
         <v>256274</v>
       </c>
       <c r="S86">
-        <v>0</v>
+        <v>0.44595064200257178</v>
       </c>
       <c r="T86">
-        <v>0</v>
+        <v>345898</v>
       </c>
       <c r="U86">
-        <v>0</v>
+        <v>774682</v>
       </c>
       <c r="V86">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.25">
@@ -47075,16 +47075,16 @@
         <v>256274</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>0.45858621099614538</v>
       </c>
       <c r="T87">
-        <v>0</v>
+        <v>347502</v>
       </c>
       <c r="U87">
-        <v>0</v>
+        <v>776262</v>
       </c>
       <c r="V87">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.25">
@@ -47140,16 +47140,16 @@
         <v>256298</v>
       </c>
       <c r="S88">
-        <v>0</v>
+        <v>0.45621867400041077</v>
       </c>
       <c r="T88">
-        <v>0</v>
+        <v>348422</v>
       </c>
       <c r="U88">
-        <v>0</v>
+        <v>777206</v>
       </c>
       <c r="V88">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="89" spans="2:22" x14ac:dyDescent="0.25">
@@ -47205,16 +47205,16 @@
         <v>256298</v>
       </c>
       <c r="S89">
-        <v>0</v>
+        <v>0.46257113100000419</v>
       </c>
       <c r="T89">
-        <v>0</v>
+        <v>349254</v>
       </c>
       <c r="U89">
-        <v>0</v>
+        <v>778014</v>
       </c>
       <c r="V89">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.25">
@@ -47270,16 +47270,16 @@
         <v>256298</v>
       </c>
       <c r="S90">
-        <v>0</v>
+        <v>0.46147216399549512</v>
       </c>
       <c r="T90">
-        <v>0</v>
+        <v>350010</v>
       </c>
       <c r="U90">
-        <v>0</v>
+        <v>778770</v>
       </c>
       <c r="V90">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.25">
@@ -47335,16 +47335,16 @@
         <v>256274</v>
       </c>
       <c r="S91">
-        <v>0</v>
+        <v>0.47076491600455478</v>
       </c>
       <c r="T91">
-        <v>0</v>
+        <v>344494</v>
       </c>
       <c r="U91">
-        <v>0</v>
+        <v>773254</v>
       </c>
       <c r="V91">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.25">
@@ -47400,16 +47400,16 @@
         <v>256298</v>
       </c>
       <c r="S92">
-        <v>0</v>
+        <v>0.44145717899664311</v>
       </c>
       <c r="T92">
-        <v>0</v>
+        <v>349802</v>
       </c>
       <c r="U92">
-        <v>0</v>
+        <v>778562</v>
       </c>
       <c r="V92">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.25">
@@ -47465,16 +47465,16 @@
         <v>256298</v>
       </c>
       <c r="S93">
-        <v>0</v>
+        <v>0.49001150500407681</v>
       </c>
       <c r="T93">
-        <v>0</v>
+        <v>346550</v>
       </c>
       <c r="U93">
-        <v>0</v>
+        <v>775334</v>
       </c>
       <c r="V93">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="94" spans="2:22" x14ac:dyDescent="0.25">
@@ -47530,16 +47530,16 @@
         <v>256298</v>
       </c>
       <c r="S94">
-        <v>0</v>
+        <v>0.43943419399874978</v>
       </c>
       <c r="T94">
-        <v>0</v>
+        <v>348918</v>
       </c>
       <c r="U94">
-        <v>0</v>
+        <v>777702</v>
       </c>
       <c r="V94">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="95" spans="2:22" x14ac:dyDescent="0.25">
@@ -47595,16 +47595,16 @@
         <v>256298</v>
       </c>
       <c r="S95">
-        <v>0</v>
+        <v>0.44981513799575618</v>
       </c>
       <c r="T95">
-        <v>0</v>
+        <v>349538</v>
       </c>
       <c r="U95">
-        <v>0</v>
+        <v>778322</v>
       </c>
       <c r="V95">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="96" spans="2:22" x14ac:dyDescent="0.25">
@@ -47660,16 +47660,16 @@
         <v>256298</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>0.44107738899765542</v>
       </c>
       <c r="T96">
-        <v>0</v>
+        <v>350910</v>
       </c>
       <c r="U96">
-        <v>0</v>
+        <v>779694</v>
       </c>
       <c r="V96">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="97" spans="2:26" x14ac:dyDescent="0.25">
@@ -47725,16 +47725,16 @@
         <v>256274</v>
       </c>
       <c r="S97">
-        <v>0</v>
+        <v>0.53330202799406834</v>
       </c>
       <c r="T97">
-        <v>0</v>
+        <v>348886</v>
       </c>
       <c r="U97">
-        <v>0</v>
+        <v>777670</v>
       </c>
       <c r="V97">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="98" spans="2:26" x14ac:dyDescent="0.25">
@@ -47790,16 +47790,16 @@
         <v>256298</v>
       </c>
       <c r="S98">
-        <v>0</v>
+        <v>0.41241287300363177</v>
       </c>
       <c r="T98">
-        <v>0</v>
+        <v>345162</v>
       </c>
       <c r="U98">
-        <v>0</v>
+        <v>773946</v>
       </c>
       <c r="V98">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="99" spans="2:26" x14ac:dyDescent="0.25">
@@ -47855,16 +47855,16 @@
         <v>256298</v>
       </c>
       <c r="S99">
-        <v>0</v>
+        <v>0.43478394400153769</v>
       </c>
       <c r="T99">
-        <v>0</v>
+        <v>348766</v>
       </c>
       <c r="U99">
-        <v>0</v>
+        <v>777550</v>
       </c>
       <c r="V99">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="100" spans="2:26" x14ac:dyDescent="0.25">
@@ -47920,16 +47920,16 @@
         <v>256298</v>
       </c>
       <c r="S100">
-        <v>0</v>
+        <v>0.46818500700464938</v>
       </c>
       <c r="T100">
-        <v>0</v>
+        <v>346430</v>
       </c>
       <c r="U100">
-        <v>0</v>
+        <v>775214</v>
       </c>
       <c r="V100">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="101" spans="2:26" x14ac:dyDescent="0.25">
@@ -47985,16 +47985,16 @@
         <v>256298</v>
       </c>
       <c r="S101">
-        <v>0</v>
+        <v>0.45185245700122317</v>
       </c>
       <c r="T101">
-        <v>0</v>
+        <v>350610</v>
       </c>
       <c r="U101">
-        <v>0</v>
+        <v>779394</v>
       </c>
       <c r="V101">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="102" spans="2:26" x14ac:dyDescent="0.25">
@@ -48050,16 +48050,16 @@
         <v>256274</v>
       </c>
       <c r="S102">
-        <v>0</v>
+        <v>0.45332039799541229</v>
       </c>
       <c r="T102">
-        <v>0</v>
+        <v>347254</v>
       </c>
       <c r="U102">
-        <v>0</v>
+        <v>776038</v>
       </c>
       <c r="V102">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.25">
@@ -48115,16 +48115,16 @@
         <v>256298</v>
       </c>
       <c r="S103">
-        <v>0</v>
+        <v>0.44489583699032659</v>
       </c>
       <c r="T103">
-        <v>0</v>
+        <v>344470</v>
       </c>
       <c r="U103">
-        <v>0</v>
+        <v>773230</v>
       </c>
       <c r="V103">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.25">
@@ -48180,16 +48180,16 @@
         <v>256298</v>
       </c>
       <c r="S104">
-        <v>0</v>
+        <v>0.67533916600223165</v>
       </c>
       <c r="T104">
-        <v>0</v>
+        <v>347030</v>
       </c>
       <c r="U104">
-        <v>0</v>
+        <v>775814</v>
       </c>
       <c r="V104">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.25">
@@ -48245,16 +48245,16 @@
         <v>256298</v>
       </c>
       <c r="S105">
-        <v>0</v>
+        <v>0.4408129499934148</v>
       </c>
       <c r="T105">
-        <v>0</v>
+        <v>343562</v>
       </c>
       <c r="U105">
-        <v>0</v>
+        <v>772322</v>
       </c>
       <c r="V105">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.25">
@@ -48310,16 +48310,16 @@
         <v>256298</v>
       </c>
       <c r="S106">
-        <v>0</v>
+        <v>0.47932782299176319</v>
       </c>
       <c r="T106">
-        <v>0</v>
+        <v>350642</v>
       </c>
       <c r="U106">
-        <v>0</v>
+        <v>779402</v>
       </c>
       <c r="V106">
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="107" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -48375,16 +48375,16 @@
         <v>256298</v>
       </c>
       <c r="S107">
-        <v>0</v>
+        <v>0.42426744000113098</v>
       </c>
       <c r="T107">
-        <v>0</v>
+        <v>347994</v>
       </c>
       <c r="U107">
-        <v>0</v>
+        <v>776778</v>
       </c>
       <c r="V107">
-        <v>0</v>
+        <v>428784</v>
       </c>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.25">
@@ -48591,19 +48591,19 @@
       </c>
       <c r="S110" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.46663776786971539</v>
       </c>
       <c r="T110" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>348032.64</v>
       </c>
       <c r="U110" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>776799.28</v>
       </c>
       <c r="V110" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>428766.64</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.25">
@@ -48676,19 +48676,19 @@
       </c>
       <c r="S111" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45287404099872219</v>
       </c>
       <c r="T111" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>347976</v>
       </c>
       <c r="U111" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>776736</v>
       </c>
       <c r="V111" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>428760</v>
       </c>
     </row>
     <row r="115" spans="2:26" x14ac:dyDescent="0.25">
@@ -48707,40 +48707,40 @@
       <c r="B117" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="39">
+      <c r="C117" s="33">
         <v>50</v>
       </c>
-      <c r="D117" s="40"/>
-      <c r="E117" s="40"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="39">
+      <c r="D117" s="34"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="33">
         <v>100</v>
       </c>
-      <c r="H117" s="40"/>
-      <c r="I117" s="40"/>
-      <c r="J117" s="42"/>
-      <c r="K117" s="39">
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
+      <c r="J117" s="40"/>
+      <c r="K117" s="33">
         <v>250</v>
       </c>
-      <c r="L117" s="40"/>
-      <c r="M117" s="40"/>
-      <c r="N117" s="41"/>
-      <c r="O117" s="39">
+      <c r="L117" s="34"/>
+      <c r="M117" s="34"/>
+      <c r="N117" s="37"/>
+      <c r="O117" s="33">
         <v>500</v>
       </c>
-      <c r="P117" s="40"/>
-      <c r="Q117" s="40"/>
-      <c r="R117" s="40"/>
-      <c r="S117" s="39">
+      <c r="P117" s="34"/>
+      <c r="Q117" s="34"/>
+      <c r="R117" s="34"/>
+      <c r="S117" s="33">
         <v>700</v>
       </c>
-      <c r="T117" s="40"/>
-      <c r="U117" s="40"/>
-      <c r="V117" s="40"/>
-      <c r="W117" s="30"/>
-      <c r="X117" s="30"/>
-      <c r="Y117" s="30"/>
-      <c r="Z117" s="30"/>
+      <c r="T117" s="34"/>
+      <c r="U117" s="34"/>
+      <c r="V117" s="34"/>
+      <c r="W117" s="32"/>
+      <c r="X117" s="32"/>
+      <c r="Y117" s="32"/>
+      <c r="Z117" s="32"/>
     </row>
     <row r="118" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
@@ -48751,19 +48751,19 @@
       </c>
       <c r="D118" s="36"/>
       <c r="E118" s="36"/>
-      <c r="F118" s="37"/>
+      <c r="F118" s="38"/>
       <c r="G118" s="35">
         <v>50</v>
       </c>
       <c r="H118" s="36"/>
       <c r="I118" s="36"/>
-      <c r="J118" s="38"/>
+      <c r="J118" s="41"/>
       <c r="K118" s="35">
         <v>100</v>
       </c>
       <c r="L118" s="36"/>
       <c r="M118" s="36"/>
-      <c r="N118" s="37"/>
+      <c r="N118" s="38"/>
       <c r="O118" s="35">
         <v>200</v>
       </c>
@@ -48776,49 +48776,49 @@
       <c r="T118" s="36"/>
       <c r="U118" s="36"/>
       <c r="V118" s="36"/>
-      <c r="W118" s="30"/>
-      <c r="X118" s="30"/>
-      <c r="Y118" s="30"/>
-      <c r="Z118" s="30"/>
+      <c r="W118" s="32"/>
+      <c r="X118" s="32"/>
+      <c r="Y118" s="32"/>
+      <c r="Z118" s="32"/>
     </row>
     <row r="119" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="31">
+      <c r="C119" s="30">
         <v>2</v>
       </c>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="31">
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="30">
         <v>5</v>
       </c>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="31">
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="42"/>
+      <c r="K119" s="30">
         <v>8</v>
       </c>
-      <c r="L119" s="32"/>
-      <c r="M119" s="32"/>
-      <c r="N119" s="33"/>
-      <c r="O119" s="31">
+      <c r="L119" s="31"/>
+      <c r="M119" s="31"/>
+      <c r="N119" s="39"/>
+      <c r="O119" s="30">
         <v>10</v>
       </c>
-      <c r="P119" s="32"/>
-      <c r="Q119" s="32"/>
-      <c r="R119" s="32"/>
-      <c r="S119" s="31">
+      <c r="P119" s="31"/>
+      <c r="Q119" s="31"/>
+      <c r="R119" s="31"/>
+      <c r="S119" s="30">
         <v>20</v>
       </c>
-      <c r="T119" s="32"/>
-      <c r="U119" s="32"/>
-      <c r="V119" s="32"/>
-      <c r="W119" s="30"/>
-      <c r="X119" s="30"/>
-      <c r="Y119" s="30"/>
-      <c r="Z119" s="30"/>
+      <c r="T119" s="31"/>
+      <c r="U119" s="31"/>
+      <c r="V119" s="31"/>
+      <c r="W119" s="32"/>
+      <c r="X119" s="32"/>
+      <c r="Y119" s="32"/>
+      <c r="Z119" s="32"/>
     </row>
     <row r="120" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B120" s="24"/>
@@ -49007,16 +49007,16 @@
         <v>965856</v>
       </c>
       <c r="S122">
-        <v>0</v>
+        <v>0.11677783300001469</v>
       </c>
       <c r="T122">
-        <v>0</v>
+        <v>1520741</v>
       </c>
       <c r="U122">
-        <v>0</v>
+        <v>2699889</v>
       </c>
       <c r="V122">
-        <v>0</v>
+        <v>1179148</v>
       </c>
     </row>
     <row r="123" spans="2:26" x14ac:dyDescent="0.25">
@@ -49072,16 +49072,16 @@
         <v>977605</v>
       </c>
       <c r="S123">
-        <v>0</v>
+        <v>0.27355758099997729</v>
       </c>
       <c r="T123">
-        <v>0</v>
+        <v>2775225</v>
       </c>
       <c r="U123">
-        <v>0</v>
+        <v>3939848</v>
       </c>
       <c r="V123">
-        <v>0</v>
+        <v>1164623</v>
       </c>
     </row>
     <row r="124" spans="2:26" x14ac:dyDescent="0.25">
@@ -49137,16 +49137,16 @@
         <v>984725</v>
       </c>
       <c r="S124">
-        <v>0</v>
+        <v>0.38457084999981822</v>
       </c>
       <c r="T124">
-        <v>0</v>
+        <v>1560779</v>
       </c>
       <c r="U124">
-        <v>0</v>
+        <v>2752206</v>
       </c>
       <c r="V124">
-        <v>0</v>
+        <v>1191427</v>
       </c>
     </row>
     <row r="125" spans="2:26" x14ac:dyDescent="0.25">
@@ -49202,16 +49202,16 @@
         <v>978853</v>
       </c>
       <c r="S125">
-        <v>0</v>
+        <v>0.1398381149997476</v>
       </c>
       <c r="T125">
-        <v>0</v>
+        <v>1500633</v>
       </c>
       <c r="U125">
-        <v>0</v>
+        <v>2672045</v>
       </c>
       <c r="V125">
-        <v>0</v>
+        <v>1171412</v>
       </c>
     </row>
     <row r="126" spans="2:26" x14ac:dyDescent="0.25">
@@ -49267,16 +49267,16 @@
         <v>978797</v>
       </c>
       <c r="S126">
-        <v>0</v>
+        <v>0.26921861900018479</v>
       </c>
       <c r="T126">
-        <v>0</v>
+        <v>1524195</v>
       </c>
       <c r="U126">
-        <v>0</v>
+        <v>2706727</v>
       </c>
       <c r="V126">
-        <v>0</v>
+        <v>1182532</v>
       </c>
     </row>
     <row r="127" spans="2:26" x14ac:dyDescent="0.25">
@@ -49332,16 +49332,16 @@
         <v>975725</v>
       </c>
       <c r="S127">
-        <v>0</v>
+        <v>0.12973537100015159</v>
       </c>
       <c r="T127">
-        <v>0</v>
+        <v>1532838</v>
       </c>
       <c r="U127">
-        <v>0</v>
+        <v>2715050</v>
       </c>
       <c r="V127">
-        <v>0</v>
+        <v>1182212</v>
       </c>
     </row>
     <row r="128" spans="2:26" x14ac:dyDescent="0.25">
@@ -49397,16 +49397,16 @@
         <v>1035442</v>
       </c>
       <c r="S128">
-        <v>0</v>
+        <v>0.10316432400031771</v>
       </c>
       <c r="T128">
-        <v>0</v>
+        <v>1531301</v>
       </c>
       <c r="U128">
-        <v>0</v>
+        <v>2728313</v>
       </c>
       <c r="V128">
-        <v>0</v>
+        <v>1197012</v>
       </c>
     </row>
     <row r="129" spans="2:22" x14ac:dyDescent="0.25">
@@ -49462,16 +49462,16 @@
         <v>991093</v>
       </c>
       <c r="S129">
-        <v>0</v>
+        <v>0.1178021400000944</v>
       </c>
       <c r="T129">
-        <v>0</v>
+        <v>1505469</v>
       </c>
       <c r="U129">
-        <v>0</v>
+        <v>2696961</v>
       </c>
       <c r="V129">
-        <v>0</v>
+        <v>1191492</v>
       </c>
     </row>
     <row r="130" spans="2:22" x14ac:dyDescent="0.25">
@@ -49527,16 +49527,16 @@
         <v>979900</v>
       </c>
       <c r="S130">
-        <v>0</v>
+        <v>0.17888798799958749</v>
       </c>
       <c r="T130">
-        <v>0</v>
+        <v>1513939</v>
       </c>
       <c r="U130">
-        <v>0</v>
+        <v>2692103</v>
       </c>
       <c r="V130">
-        <v>0</v>
+        <v>1178164</v>
       </c>
     </row>
     <row r="131" spans="2:22" x14ac:dyDescent="0.25">
@@ -49592,16 +49592,16 @@
         <v>983520</v>
       </c>
       <c r="S131">
-        <v>0</v>
+        <v>0.12498756399963901</v>
       </c>
       <c r="T131">
-        <v>0</v>
+        <v>1520762</v>
       </c>
       <c r="U131">
-        <v>0</v>
+        <v>2699398</v>
       </c>
       <c r="V131">
-        <v>0</v>
+        <v>1178636</v>
       </c>
     </row>
     <row r="132" spans="2:22" x14ac:dyDescent="0.25">
@@ -49657,16 +49657,16 @@
         <v>960008</v>
       </c>
       <c r="S132">
-        <v>0</v>
+        <v>0.12673221700060819</v>
       </c>
       <c r="T132">
-        <v>0</v>
+        <v>1506937</v>
       </c>
       <c r="U132">
-        <v>0</v>
+        <v>2679549</v>
       </c>
       <c r="V132">
-        <v>0</v>
+        <v>1172612</v>
       </c>
     </row>
     <row r="133" spans="2:22" x14ac:dyDescent="0.25">
@@ -49722,16 +49722,16 @@
         <v>991044</v>
       </c>
       <c r="S133">
-        <v>0</v>
+        <v>0.1416051360010897</v>
       </c>
       <c r="T133">
-        <v>0</v>
+        <v>1517227</v>
       </c>
       <c r="U133">
-        <v>0</v>
+        <v>2697031</v>
       </c>
       <c r="V133">
-        <v>0</v>
+        <v>1179804</v>
       </c>
     </row>
     <row r="134" spans="2:22" x14ac:dyDescent="0.25">
@@ -49787,16 +49787,16 @@
         <v>980749</v>
       </c>
       <c r="S134">
-        <v>0</v>
+        <v>0.1189471050001885</v>
       </c>
       <c r="T134">
-        <v>0</v>
+        <v>1514223</v>
       </c>
       <c r="U134">
-        <v>0</v>
+        <v>2692435</v>
       </c>
       <c r="V134">
-        <v>0</v>
+        <v>1178212</v>
       </c>
     </row>
     <row r="135" spans="2:22" x14ac:dyDescent="0.25">
@@ -49852,16 +49852,16 @@
         <v>943609</v>
       </c>
       <c r="S135">
-        <v>0</v>
+        <v>0.15447888400012741</v>
       </c>
       <c r="T135">
-        <v>0</v>
+        <v>1518708</v>
       </c>
       <c r="U135">
-        <v>0</v>
+        <v>2700147</v>
       </c>
       <c r="V135">
-        <v>0</v>
+        <v>1181439</v>
       </c>
     </row>
     <row r="136" spans="2:22" x14ac:dyDescent="0.25">
@@ -49917,16 +49917,16 @@
         <v>984433</v>
       </c>
       <c r="S136">
-        <v>0</v>
+        <v>0.18771402399943329</v>
       </c>
       <c r="T136">
-        <v>0</v>
+        <v>1596233</v>
       </c>
       <c r="U136">
-        <v>0</v>
+        <v>2773398</v>
       </c>
       <c r="V136">
-        <v>0</v>
+        <v>1177165</v>
       </c>
     </row>
     <row r="137" spans="2:22" x14ac:dyDescent="0.25">
@@ -49982,16 +49982,16 @@
         <v>975696</v>
       </c>
       <c r="S137">
-        <v>0</v>
+        <v>0.23072157899878221</v>
       </c>
       <c r="T137">
-        <v>0</v>
+        <v>1546412</v>
       </c>
       <c r="U137">
-        <v>0</v>
+        <v>2730055</v>
       </c>
       <c r="V137">
-        <v>0</v>
+        <v>1183643</v>
       </c>
     </row>
     <row r="138" spans="2:22" x14ac:dyDescent="0.25">
@@ -50047,16 +50047,16 @@
         <v>985667</v>
       </c>
       <c r="S138">
-        <v>0</v>
+        <v>0.27314118200047233</v>
       </c>
       <c r="T138">
-        <v>0</v>
+        <v>2242777</v>
       </c>
       <c r="U138">
-        <v>0</v>
+        <v>3398579</v>
       </c>
       <c r="V138">
-        <v>0</v>
+        <v>1155802</v>
       </c>
     </row>
     <row r="139" spans="2:22" x14ac:dyDescent="0.25">
@@ -50112,16 +50112,16 @@
         <v>968861</v>
       </c>
       <c r="S139">
-        <v>0</v>
+        <v>0.15421350100041309</v>
       </c>
       <c r="T139">
-        <v>0</v>
+        <v>1504488</v>
       </c>
       <c r="U139">
-        <v>0</v>
+        <v>2685516</v>
       </c>
       <c r="V139">
-        <v>0</v>
+        <v>1181028</v>
       </c>
     </row>
     <row r="140" spans="2:22" x14ac:dyDescent="0.25">
@@ -50177,16 +50177,16 @@
         <v>979498</v>
       </c>
       <c r="S140">
-        <v>0</v>
+        <v>0.1520002760007628</v>
       </c>
       <c r="T140">
-        <v>0</v>
+        <v>1546634</v>
       </c>
       <c r="U140">
-        <v>0</v>
+        <v>2746854</v>
       </c>
       <c r="V140">
-        <v>0</v>
+        <v>1200220</v>
       </c>
     </row>
     <row r="141" spans="2:22" x14ac:dyDescent="0.25">
@@ -50242,16 +50242,16 @@
         <v>986363</v>
       </c>
       <c r="S141">
-        <v>0</v>
+        <v>7.7119856001445442E-2</v>
       </c>
       <c r="T141">
-        <v>0</v>
+        <v>1529071</v>
       </c>
       <c r="U141">
-        <v>0</v>
+        <v>2722187</v>
       </c>
       <c r="V141">
-        <v>0</v>
+        <v>1193116</v>
       </c>
     </row>
     <row r="142" spans="2:22" x14ac:dyDescent="0.25">
@@ -50307,16 +50307,16 @@
         <v>959379</v>
       </c>
       <c r="S142">
-        <v>0</v>
+        <v>0.1024073869994027</v>
       </c>
       <c r="T142">
-        <v>0</v>
+        <v>1523036</v>
       </c>
       <c r="U142">
-        <v>0</v>
+        <v>2703888</v>
       </c>
       <c r="V142">
-        <v>0</v>
+        <v>1180852</v>
       </c>
     </row>
     <row r="143" spans="2:22" x14ac:dyDescent="0.25">
@@ -50372,16 +50372,16 @@
         <v>1004617</v>
       </c>
       <c r="S143">
-        <v>0</v>
+        <v>0.12650117700104599</v>
       </c>
       <c r="T143">
-        <v>0</v>
+        <v>1510243</v>
       </c>
       <c r="U143">
-        <v>0</v>
+        <v>2689311</v>
       </c>
       <c r="V143">
-        <v>0</v>
+        <v>1179068</v>
       </c>
     </row>
     <row r="144" spans="2:22" x14ac:dyDescent="0.25">
@@ -50437,16 +50437,16 @@
         <v>964214</v>
       </c>
       <c r="S144">
-        <v>0</v>
+        <v>0.12879944200176399</v>
       </c>
       <c r="T144">
-        <v>0</v>
+        <v>1515582</v>
       </c>
       <c r="U144">
-        <v>0</v>
+        <v>2693575</v>
       </c>
       <c r="V144">
-        <v>0</v>
+        <v>1177993</v>
       </c>
     </row>
     <row r="145" spans="2:22" x14ac:dyDescent="0.25">
@@ -50502,16 +50502,16 @@
         <v>984537</v>
       </c>
       <c r="S145">
-        <v>0</v>
+        <v>0.1236007519983104</v>
       </c>
       <c r="T145">
-        <v>0</v>
+        <v>1488836</v>
       </c>
       <c r="U145">
-        <v>0</v>
+        <v>2667904</v>
       </c>
       <c r="V145">
-        <v>0</v>
+        <v>1179068</v>
       </c>
     </row>
     <row r="146" spans="2:22" x14ac:dyDescent="0.25">
@@ -50567,16 +50567,16 @@
         <v>991171</v>
       </c>
       <c r="S146">
-        <v>0</v>
+        <v>0.3193282909996924</v>
       </c>
       <c r="T146">
-        <v>0</v>
+        <v>2436753</v>
       </c>
       <c r="U146">
-        <v>0</v>
+        <v>3592293</v>
       </c>
       <c r="V146">
-        <v>0</v>
+        <v>1155540</v>
       </c>
     </row>
     <row r="147" spans="2:22" x14ac:dyDescent="0.25">
@@ -50632,16 +50632,16 @@
         <v>994919</v>
       </c>
       <c r="S147">
-        <v>0</v>
+        <v>0.21861360199909541</v>
       </c>
       <c r="T147">
-        <v>0</v>
+        <v>1843881</v>
       </c>
       <c r="U147">
-        <v>0</v>
+        <v>2941148</v>
       </c>
       <c r="V147">
-        <v>0</v>
+        <v>1097267</v>
       </c>
     </row>
     <row r="148" spans="2:22" x14ac:dyDescent="0.25">
@@ -50697,16 +50697,16 @@
         <v>975267</v>
       </c>
       <c r="S148">
-        <v>0</v>
+        <v>0.30658263299847022</v>
       </c>
       <c r="T148">
-        <v>0</v>
+        <v>2654956</v>
       </c>
       <c r="U148">
-        <v>0</v>
+        <v>3801120</v>
       </c>
       <c r="V148">
-        <v>0</v>
+        <v>1146164</v>
       </c>
     </row>
     <row r="149" spans="2:22" x14ac:dyDescent="0.25">
@@ -50762,16 +50762,16 @@
         <v>982478</v>
       </c>
       <c r="S149">
-        <v>0</v>
+        <v>0.11013387200000579</v>
       </c>
       <c r="T149">
-        <v>0</v>
+        <v>1512617</v>
       </c>
       <c r="U149">
-        <v>0</v>
+        <v>2708789</v>
       </c>
       <c r="V149">
-        <v>0</v>
+        <v>1196172</v>
       </c>
     </row>
     <row r="150" spans="2:22" x14ac:dyDescent="0.25">
@@ -50827,16 +50827,16 @@
         <v>982271</v>
       </c>
       <c r="S150">
-        <v>0</v>
+        <v>0.22700546700070839</v>
       </c>
       <c r="T150">
-        <v>0</v>
+        <v>1525260</v>
       </c>
       <c r="U150">
-        <v>0</v>
+        <v>2725392</v>
       </c>
       <c r="V150">
-        <v>0</v>
+        <v>1200132</v>
       </c>
     </row>
     <row r="151" spans="2:22" x14ac:dyDescent="0.25">
@@ -50892,16 +50892,16 @@
         <v>971543</v>
       </c>
       <c r="S151">
-        <v>0</v>
+        <v>0.42137658199862932</v>
       </c>
       <c r="T151">
-        <v>0</v>
+        <v>2779530</v>
       </c>
       <c r="U151">
-        <v>0</v>
+        <v>3913848</v>
       </c>
       <c r="V151">
-        <v>0</v>
+        <v>1134318</v>
       </c>
     </row>
     <row r="152" spans="2:22" x14ac:dyDescent="0.25">
@@ -50957,16 +50957,16 @@
         <v>982078</v>
       </c>
       <c r="S152">
-        <v>0</v>
+        <v>0.13921269499769551</v>
       </c>
       <c r="T152">
-        <v>0</v>
+        <v>1559694</v>
       </c>
       <c r="U152">
-        <v>0</v>
+        <v>2755282</v>
       </c>
       <c r="V152">
-        <v>0</v>
+        <v>1195588</v>
       </c>
     </row>
     <row r="153" spans="2:22" x14ac:dyDescent="0.25">
@@ -51022,16 +51022,16 @@
         <v>981908</v>
       </c>
       <c r="S153">
-        <v>0</v>
+        <v>0.23155066699837329</v>
       </c>
       <c r="T153">
-        <v>0</v>
+        <v>1527983</v>
       </c>
       <c r="U153">
-        <v>0</v>
+        <v>2722083</v>
       </c>
       <c r="V153">
-        <v>0</v>
+        <v>1194100</v>
       </c>
     </row>
     <row r="154" spans="2:22" x14ac:dyDescent="0.25">
@@ -51087,16 +51087,16 @@
         <v>976075</v>
       </c>
       <c r="S154">
-        <v>0</v>
+        <v>0.39616794899848168</v>
       </c>
       <c r="T154">
-        <v>0</v>
+        <v>1530241</v>
       </c>
       <c r="U154">
-        <v>0</v>
+        <v>2725877</v>
       </c>
       <c r="V154">
-        <v>0</v>
+        <v>1195636</v>
       </c>
     </row>
     <row r="155" spans="2:22" x14ac:dyDescent="0.25">
@@ -51152,16 +51152,16 @@
         <v>970936</v>
       </c>
       <c r="S155">
-        <v>0</v>
+        <v>0.1204045370031963</v>
       </c>
       <c r="T155">
-        <v>0</v>
+        <v>1517423</v>
       </c>
       <c r="U155">
-        <v>0</v>
+        <v>2696403</v>
       </c>
       <c r="V155">
-        <v>0</v>
+        <v>1178980</v>
       </c>
     </row>
     <row r="156" spans="2:22" x14ac:dyDescent="0.25">
@@ -51217,16 +51217,16 @@
         <v>983959</v>
       </c>
       <c r="S156">
-        <v>0</v>
+        <v>0.16224708699883189</v>
       </c>
       <c r="T156">
-        <v>0</v>
+        <v>1516543</v>
       </c>
       <c r="U156">
-        <v>0</v>
+        <v>2715315</v>
       </c>
       <c r="V156">
-        <v>0</v>
+        <v>1198772</v>
       </c>
     </row>
     <row r="157" spans="2:22" x14ac:dyDescent="0.25">
@@ -51282,16 +51282,16 @@
         <v>981133</v>
       </c>
       <c r="S157">
-        <v>0</v>
+        <v>0.1059704020008212</v>
       </c>
       <c r="T157">
-        <v>0</v>
+        <v>1527860</v>
       </c>
       <c r="U157">
-        <v>0</v>
+        <v>2720800</v>
       </c>
       <c r="V157">
-        <v>0</v>
+        <v>1192940</v>
       </c>
     </row>
     <row r="158" spans="2:22" x14ac:dyDescent="0.25">
@@ -51347,16 +51347,16 @@
         <v>983944</v>
       </c>
       <c r="S158">
-        <v>0</v>
+        <v>0.12643758799822541</v>
       </c>
       <c r="T158">
-        <v>0</v>
+        <v>1523335</v>
       </c>
       <c r="U158">
-        <v>0</v>
+        <v>2706310</v>
       </c>
       <c r="V158">
-        <v>0</v>
+        <v>1182975</v>
       </c>
     </row>
     <row r="159" spans="2:22" x14ac:dyDescent="0.25">
@@ -51412,16 +51412,16 @@
         <v>979572</v>
       </c>
       <c r="S159">
-        <v>0</v>
+        <v>0.12676198500048491</v>
       </c>
       <c r="T159">
-        <v>0</v>
+        <v>1515502</v>
       </c>
       <c r="U159">
-        <v>0</v>
+        <v>2711378</v>
       </c>
       <c r="V159">
-        <v>0</v>
+        <v>1195876</v>
       </c>
     </row>
     <row r="160" spans="2:22" x14ac:dyDescent="0.25">
@@ -51477,16 +51477,16 @@
         <v>988864</v>
       </c>
       <c r="S160">
-        <v>0</v>
+        <v>0.11955413100076839</v>
       </c>
       <c r="T160">
-        <v>0</v>
+        <v>1505845</v>
       </c>
       <c r="U160">
-        <v>0</v>
+        <v>2687801</v>
       </c>
       <c r="V160">
-        <v>0</v>
+        <v>1181956</v>
       </c>
     </row>
     <row r="161" spans="2:22" x14ac:dyDescent="0.25">
@@ -51542,16 +51542,16 @@
         <v>987506</v>
       </c>
       <c r="S161">
-        <v>0</v>
+        <v>0.1165662200000952</v>
       </c>
       <c r="T161">
-        <v>0</v>
+        <v>1508546</v>
       </c>
       <c r="U161">
-        <v>0</v>
+        <v>2690454</v>
       </c>
       <c r="V161">
-        <v>0</v>
+        <v>1181908</v>
       </c>
     </row>
     <row r="162" spans="2:22" x14ac:dyDescent="0.25">
@@ -51607,16 +51607,16 @@
         <v>981610</v>
       </c>
       <c r="S162">
-        <v>0</v>
+        <v>0.35836161000042921</v>
       </c>
       <c r="T162">
-        <v>0</v>
+        <v>2846172</v>
       </c>
       <c r="U162">
-        <v>0</v>
+        <v>4014230</v>
       </c>
       <c r="V162">
-        <v>0</v>
+        <v>1168058</v>
       </c>
     </row>
     <row r="163" spans="2:22" x14ac:dyDescent="0.25">
@@ -51672,16 +51672,16 @@
         <v>974977</v>
       </c>
       <c r="S163">
-        <v>0</v>
+        <v>0.1017563530003827</v>
       </c>
       <c r="T163">
-        <v>0</v>
+        <v>1528784</v>
       </c>
       <c r="U163">
-        <v>0</v>
+        <v>2720436</v>
       </c>
       <c r="V163">
-        <v>0</v>
+        <v>1191652</v>
       </c>
     </row>
     <row r="164" spans="2:22" x14ac:dyDescent="0.25">
@@ -51737,16 +51737,16 @@
         <v>963477</v>
       </c>
       <c r="S164">
-        <v>0</v>
+        <v>0.1432295230042655</v>
       </c>
       <c r="T164">
-        <v>0</v>
+        <v>1538673</v>
       </c>
       <c r="U164">
-        <v>0</v>
+        <v>2730229</v>
       </c>
       <c r="V164">
-        <v>0</v>
+        <v>1191556</v>
       </c>
     </row>
     <row r="165" spans="2:22" x14ac:dyDescent="0.25">
@@ -51802,16 +51802,16 @@
         <v>979931</v>
       </c>
       <c r="S165">
-        <v>0</v>
+        <v>0.1221851160007645</v>
       </c>
       <c r="T165">
-        <v>0</v>
+        <v>1507888</v>
       </c>
       <c r="U165">
-        <v>0</v>
+        <v>2680732</v>
       </c>
       <c r="V165">
-        <v>0</v>
+        <v>1172844</v>
       </c>
     </row>
     <row r="166" spans="2:22" x14ac:dyDescent="0.25">
@@ -51867,16 +51867,16 @@
         <v>978083</v>
       </c>
       <c r="S166">
-        <v>0</v>
+        <v>0.1174862660045619</v>
       </c>
       <c r="T166">
-        <v>0</v>
+        <v>1486313</v>
       </c>
       <c r="U166">
-        <v>0</v>
+        <v>2654093</v>
       </c>
       <c r="V166">
-        <v>0</v>
+        <v>1167780</v>
       </c>
     </row>
     <row r="167" spans="2:22" x14ac:dyDescent="0.25">
@@ -51932,16 +51932,16 @@
         <v>972985</v>
       </c>
       <c r="S167">
-        <v>0</v>
+        <v>0.14786924800137061</v>
       </c>
       <c r="T167">
-        <v>0</v>
+        <v>1491694</v>
       </c>
       <c r="U167">
-        <v>0</v>
+        <v>2664786</v>
       </c>
       <c r="V167">
-        <v>0</v>
+        <v>1173092</v>
       </c>
     </row>
     <row r="168" spans="2:22" x14ac:dyDescent="0.25">
@@ -51997,16 +51997,16 @@
         <v>985777</v>
       </c>
       <c r="S168">
-        <v>0</v>
+        <v>0.12029052200523439</v>
       </c>
       <c r="T168">
-        <v>0</v>
+        <v>1492186</v>
       </c>
       <c r="U168">
-        <v>0</v>
+        <v>2663102</v>
       </c>
       <c r="V168">
-        <v>0</v>
+        <v>1170916</v>
       </c>
     </row>
     <row r="169" spans="2:22" x14ac:dyDescent="0.25">
@@ -52062,16 +52062,16 @@
         <v>986520</v>
       </c>
       <c r="S169">
-        <v>0</v>
+        <v>0.3926869969945983</v>
       </c>
       <c r="T169">
-        <v>0</v>
+        <v>2668378</v>
       </c>
       <c r="U169">
-        <v>0</v>
+        <v>3815950</v>
       </c>
       <c r="V169">
-        <v>0</v>
+        <v>1147572</v>
       </c>
     </row>
     <row r="170" spans="2:22" x14ac:dyDescent="0.25">
@@ -52127,16 +52127,16 @@
         <v>964259</v>
       </c>
       <c r="S170">
-        <v>0</v>
+        <v>0.1109428480049246</v>
       </c>
       <c r="T170">
-        <v>0</v>
+        <v>1537117</v>
       </c>
       <c r="U170">
-        <v>0</v>
+        <v>2734601</v>
       </c>
       <c r="V170">
-        <v>0</v>
+        <v>1197484</v>
       </c>
     </row>
     <row r="171" spans="2:22" x14ac:dyDescent="0.25">
@@ -52192,16 +52192,16 @@
         <v>980699</v>
       </c>
       <c r="S171">
-        <v>0</v>
+        <v>0.11924073800037149</v>
       </c>
       <c r="T171">
-        <v>0</v>
+        <v>1515163</v>
       </c>
       <c r="U171">
-        <v>0</v>
+        <v>2693183</v>
       </c>
       <c r="V171">
-        <v>0</v>
+        <v>1178020</v>
       </c>
     </row>
     <row r="172" spans="2:22" x14ac:dyDescent="0.25">
@@ -52257,16 +52257,16 @@
         <v>982878</v>
       </c>
       <c r="S172">
-        <v>0</v>
+        <v>8.0435595002199989E-2</v>
       </c>
       <c r="T172">
-        <v>0</v>
+        <v>1536912</v>
       </c>
       <c r="U172">
-        <v>0</v>
+        <v>2734260</v>
       </c>
       <c r="V172">
-        <v>0</v>
+        <v>1197348</v>
       </c>
     </row>
     <row r="173" spans="2:22" x14ac:dyDescent="0.25">
@@ -52322,16 +52322,16 @@
         <v>974943</v>
       </c>
       <c r="S173">
-        <v>0</v>
+        <v>0.29038918400328839</v>
       </c>
       <c r="T173">
-        <v>0</v>
+        <v>2366620</v>
       </c>
       <c r="U173">
-        <v>0</v>
+        <v>3545555</v>
       </c>
       <c r="V173">
-        <v>0</v>
+        <v>1178935</v>
       </c>
     </row>
     <row r="174" spans="2:22" x14ac:dyDescent="0.25">
@@ -52387,16 +52387,16 @@
         <v>1002851</v>
       </c>
       <c r="S174">
-        <v>0</v>
+        <v>0.1052243890007958</v>
       </c>
       <c r="T174">
-        <v>0</v>
+        <v>1490448</v>
       </c>
       <c r="U174">
-        <v>0</v>
+        <v>2663756</v>
       </c>
       <c r="V174">
-        <v>0</v>
+        <v>1173308</v>
       </c>
     </row>
     <row r="175" spans="2:22" x14ac:dyDescent="0.25">
@@ -52452,16 +52452,16 @@
         <v>969727</v>
       </c>
       <c r="S175">
-        <v>0</v>
+        <v>0.14795957299793369</v>
       </c>
       <c r="T175">
-        <v>0</v>
+        <v>1514456</v>
       </c>
       <c r="U175">
-        <v>0</v>
+        <v>2705956</v>
       </c>
       <c r="V175">
-        <v>0</v>
+        <v>1191500</v>
       </c>
     </row>
     <row r="176" spans="2:22" x14ac:dyDescent="0.25">
@@ -52517,16 +52517,16 @@
         <v>991269</v>
       </c>
       <c r="S176">
-        <v>0</v>
+        <v>0.1332256919995416</v>
       </c>
       <c r="T176">
-        <v>0</v>
+        <v>1505186</v>
       </c>
       <c r="U176">
-        <v>0</v>
+        <v>2686870</v>
       </c>
       <c r="V176">
-        <v>0</v>
+        <v>1181684</v>
       </c>
     </row>
     <row r="177" spans="2:22" x14ac:dyDescent="0.25">
@@ -52582,16 +52582,16 @@
         <v>979411</v>
       </c>
       <c r="S177">
-        <v>0</v>
+        <v>0.1329311990048154</v>
       </c>
       <c r="T177">
-        <v>0</v>
+        <v>1514304</v>
       </c>
       <c r="U177">
-        <v>0</v>
+        <v>2701204</v>
       </c>
       <c r="V177">
-        <v>0</v>
+        <v>1186900</v>
       </c>
     </row>
     <row r="178" spans="2:22" x14ac:dyDescent="0.25">
@@ -52647,16 +52647,16 @@
         <v>984981</v>
       </c>
       <c r="S178">
-        <v>0</v>
+        <v>0.1165251610000269</v>
       </c>
       <c r="T178">
-        <v>0</v>
+        <v>1514421</v>
       </c>
       <c r="U178">
-        <v>0</v>
+        <v>2697593</v>
       </c>
       <c r="V178">
-        <v>0</v>
+        <v>1183172</v>
       </c>
     </row>
     <row r="179" spans="2:22" x14ac:dyDescent="0.25">
@@ -52712,16 +52712,16 @@
         <v>991450</v>
       </c>
       <c r="S179">
-        <v>0</v>
+        <v>0.15239507500518809</v>
       </c>
       <c r="T179">
-        <v>0</v>
+        <v>1523734</v>
       </c>
       <c r="U179">
-        <v>0</v>
+        <v>2693859</v>
       </c>
       <c r="V179">
-        <v>0</v>
+        <v>1170125</v>
       </c>
     </row>
     <row r="180" spans="2:22" x14ac:dyDescent="0.25">
@@ -52777,16 +52777,16 @@
         <v>977589</v>
       </c>
       <c r="S180">
-        <v>0</v>
+        <v>0.1182566139978007</v>
       </c>
       <c r="T180">
-        <v>0</v>
+        <v>1508155</v>
       </c>
       <c r="U180">
-        <v>0</v>
+        <v>2689783</v>
       </c>
       <c r="V180">
-        <v>0</v>
+        <v>1181628</v>
       </c>
     </row>
     <row r="181" spans="2:22" x14ac:dyDescent="0.25">
@@ -52842,16 +52842,16 @@
         <v>979478</v>
       </c>
       <c r="S181">
-        <v>0</v>
+        <v>0.1238538800025708</v>
       </c>
       <c r="T181">
-        <v>0</v>
+        <v>1540171</v>
       </c>
       <c r="U181">
-        <v>0</v>
+        <v>2744069</v>
       </c>
       <c r="V181">
-        <v>0</v>
+        <v>1203898</v>
       </c>
     </row>
     <row r="182" spans="2:22" x14ac:dyDescent="0.25">
@@ -52907,16 +52907,16 @@
         <v>965361</v>
       </c>
       <c r="S182">
-        <v>0</v>
+        <v>0.1177724670051248</v>
       </c>
       <c r="T182">
-        <v>0</v>
+        <v>1515934</v>
       </c>
       <c r="U182">
-        <v>0</v>
+        <v>2693674</v>
       </c>
       <c r="V182">
-        <v>0</v>
+        <v>1177740</v>
       </c>
     </row>
     <row r="183" spans="2:22" x14ac:dyDescent="0.25">
@@ -52972,16 +52972,16 @@
         <v>988715</v>
       </c>
       <c r="S183">
-        <v>0</v>
+        <v>0.1145425970025826</v>
       </c>
       <c r="T183">
-        <v>0</v>
+        <v>1497855</v>
       </c>
       <c r="U183">
-        <v>0</v>
+        <v>2676691</v>
       </c>
       <c r="V183">
-        <v>0</v>
+        <v>1178836</v>
       </c>
     </row>
     <row r="184" spans="2:22" x14ac:dyDescent="0.25">
@@ -53037,16 +53037,16 @@
         <v>987810</v>
       </c>
       <c r="S184">
-        <v>0</v>
+        <v>0.24491187599778641</v>
       </c>
       <c r="T184">
-        <v>0</v>
+        <v>1448201</v>
       </c>
       <c r="U184">
-        <v>0</v>
+        <v>2640565</v>
       </c>
       <c r="V184">
-        <v>0</v>
+        <v>1192364</v>
       </c>
     </row>
     <row r="185" spans="2:22" x14ac:dyDescent="0.25">
@@ -53102,16 +53102,16 @@
         <v>1008736</v>
       </c>
       <c r="S185">
-        <v>0</v>
+        <v>0.27019560999906389</v>
       </c>
       <c r="T185">
-        <v>0</v>
+        <v>2536034</v>
       </c>
       <c r="U185">
-        <v>0</v>
+        <v>3700577</v>
       </c>
       <c r="V185">
-        <v>0</v>
+        <v>1164543</v>
       </c>
     </row>
     <row r="186" spans="2:22" x14ac:dyDescent="0.25">
@@ -53167,16 +53167,16 @@
         <v>975866</v>
       </c>
       <c r="S186">
-        <v>0</v>
+        <v>0.31258539299597032</v>
       </c>
       <c r="T186">
-        <v>0</v>
+        <v>2650872</v>
       </c>
       <c r="U186">
-        <v>0</v>
+        <v>3759695</v>
       </c>
       <c r="V186">
-        <v>0</v>
+        <v>1108823</v>
       </c>
     </row>
     <row r="187" spans="2:22" x14ac:dyDescent="0.25">
@@ -53232,16 +53232,16 @@
         <v>988189</v>
       </c>
       <c r="S187">
-        <v>0</v>
+        <v>0.13652387999900381</v>
       </c>
       <c r="T187">
-        <v>0</v>
+        <v>1518803</v>
       </c>
       <c r="U187">
-        <v>0</v>
+        <v>2698151</v>
       </c>
       <c r="V187">
-        <v>0</v>
+        <v>1179348</v>
       </c>
     </row>
     <row r="188" spans="2:22" x14ac:dyDescent="0.25">
@@ -53297,16 +53297,16 @@
         <v>982123</v>
       </c>
       <c r="S188">
-        <v>0</v>
+        <v>0.1167814220025321</v>
       </c>
       <c r="T188">
-        <v>0</v>
+        <v>1511034</v>
       </c>
       <c r="U188">
-        <v>0</v>
+        <v>2704542</v>
       </c>
       <c r="V188">
-        <v>0</v>
+        <v>1193508</v>
       </c>
     </row>
     <row r="189" spans="2:22" x14ac:dyDescent="0.25">
@@ -53362,16 +53362,16 @@
         <v>920059</v>
       </c>
       <c r="S189">
-        <v>0</v>
+        <v>0.14444199600256979</v>
       </c>
       <c r="T189">
-        <v>0</v>
+        <v>1495259</v>
       </c>
       <c r="U189">
-        <v>0</v>
+        <v>2674287</v>
       </c>
       <c r="V189">
-        <v>0</v>
+        <v>1179028</v>
       </c>
     </row>
     <row r="190" spans="2:22" x14ac:dyDescent="0.25">
@@ -53427,16 +53427,16 @@
         <v>946682</v>
       </c>
       <c r="S190">
-        <v>0</v>
+        <v>0.13745211399509569</v>
       </c>
       <c r="T190">
-        <v>0</v>
+        <v>1510582</v>
       </c>
       <c r="U190">
-        <v>0</v>
+        <v>2692362</v>
       </c>
       <c r="V190">
-        <v>0</v>
+        <v>1181780</v>
       </c>
     </row>
     <row r="191" spans="2:22" x14ac:dyDescent="0.25">
@@ -53492,16 +53492,16 @@
         <v>976177</v>
       </c>
       <c r="S191">
-        <v>0</v>
+        <v>0.13057801000104521</v>
       </c>
       <c r="T191">
-        <v>0</v>
+        <v>1515623</v>
       </c>
       <c r="U191">
-        <v>0</v>
+        <v>2716603</v>
       </c>
       <c r="V191">
-        <v>0</v>
+        <v>1200980</v>
       </c>
     </row>
     <row r="192" spans="2:22" x14ac:dyDescent="0.25">
@@ -53557,16 +53557,16 @@
         <v>979296</v>
       </c>
       <c r="S192">
-        <v>0</v>
+        <v>0.32379434600443352</v>
       </c>
       <c r="T192">
-        <v>0</v>
+        <v>2899200</v>
       </c>
       <c r="U192">
-        <v>0</v>
+        <v>4089228</v>
       </c>
       <c r="V192">
-        <v>0</v>
+        <v>1190028</v>
       </c>
     </row>
     <row r="193" spans="2:22" x14ac:dyDescent="0.25">
@@ -53622,16 +53622,16 @@
         <v>989328</v>
       </c>
       <c r="S193">
-        <v>0</v>
+        <v>0.16673596799955701</v>
       </c>
       <c r="T193">
-        <v>0</v>
+        <v>1514753</v>
       </c>
       <c r="U193">
-        <v>0</v>
+        <v>2694837</v>
       </c>
       <c r="V193">
-        <v>0</v>
+        <v>1180084</v>
       </c>
     </row>
     <row r="194" spans="2:22" x14ac:dyDescent="0.25">
@@ -53687,16 +53687,16 @@
         <v>995809</v>
       </c>
       <c r="S194">
-        <v>0</v>
+        <v>0.11358453700086101</v>
       </c>
       <c r="T194">
-        <v>0</v>
+        <v>1513370</v>
       </c>
       <c r="U194">
-        <v>0</v>
+        <v>2691446</v>
       </c>
       <c r="V194">
-        <v>0</v>
+        <v>1178076</v>
       </c>
     </row>
     <row r="195" spans="2:22" x14ac:dyDescent="0.25">
@@ -53752,16 +53752,16 @@
         <v>975376</v>
       </c>
       <c r="S195">
-        <v>0</v>
+        <v>0.28883660300198238</v>
       </c>
       <c r="T195">
-        <v>0</v>
+        <v>1520120</v>
       </c>
       <c r="U195">
-        <v>0</v>
+        <v>2713580</v>
       </c>
       <c r="V195">
-        <v>0</v>
+        <v>1193460</v>
       </c>
     </row>
     <row r="196" spans="2:22" x14ac:dyDescent="0.25">
@@ -53817,16 +53817,16 @@
         <v>983373</v>
       </c>
       <c r="S196">
-        <v>0</v>
+        <v>0.14296473900321871</v>
       </c>
       <c r="T196">
-        <v>0</v>
+        <v>1617591</v>
       </c>
       <c r="U196">
-        <v>0</v>
+        <v>2716078</v>
       </c>
       <c r="V196">
-        <v>0</v>
+        <v>1098487</v>
       </c>
     </row>
     <row r="197" spans="2:22" x14ac:dyDescent="0.25">
@@ -53882,16 +53882,16 @@
         <v>968974</v>
       </c>
       <c r="S197">
-        <v>0</v>
+        <v>0.15465615500579591</v>
       </c>
       <c r="T197">
-        <v>0</v>
+        <v>1499034</v>
       </c>
       <c r="U197">
-        <v>0</v>
+        <v>2673270</v>
       </c>
       <c r="V197">
-        <v>0</v>
+        <v>1174236</v>
       </c>
     </row>
     <row r="198" spans="2:22" x14ac:dyDescent="0.25">
@@ -53947,16 +53947,16 @@
         <v>986087</v>
       </c>
       <c r="S198">
-        <v>0</v>
+        <v>0.190082071996585</v>
       </c>
       <c r="T198">
-        <v>0</v>
+        <v>1514309</v>
       </c>
       <c r="U198">
-        <v>0</v>
+        <v>2695585</v>
       </c>
       <c r="V198">
-        <v>0</v>
+        <v>1181276</v>
       </c>
     </row>
     <row r="199" spans="2:22" x14ac:dyDescent="0.25">
@@ -54012,16 +54012,16 @@
         <v>972893</v>
       </c>
       <c r="S199">
-        <v>0</v>
+        <v>0.12917140700301391</v>
       </c>
       <c r="T199">
-        <v>0</v>
+        <v>1526651</v>
       </c>
       <c r="U199">
-        <v>0</v>
+        <v>2718351</v>
       </c>
       <c r="V199">
-        <v>0</v>
+        <v>1191700</v>
       </c>
     </row>
     <row r="200" spans="2:22" x14ac:dyDescent="0.25">
@@ -54077,16 +54077,16 @@
         <v>972341</v>
       </c>
       <c r="S200">
-        <v>0</v>
+        <v>0.47865222099790122</v>
       </c>
       <c r="T200">
-        <v>0</v>
+        <v>2368096</v>
       </c>
       <c r="U200">
-        <v>0</v>
+        <v>3537146</v>
       </c>
       <c r="V200">
-        <v>0</v>
+        <v>1169050</v>
       </c>
     </row>
     <row r="201" spans="2:22" x14ac:dyDescent="0.25">
@@ -54142,16 +54142,16 @@
         <v>983541</v>
       </c>
       <c r="S201">
-        <v>0</v>
+        <v>0.57878969900048105</v>
       </c>
       <c r="T201">
-        <v>0</v>
+        <v>2932046</v>
       </c>
       <c r="U201">
-        <v>0</v>
+        <v>4074898</v>
       </c>
       <c r="V201">
-        <v>0</v>
+        <v>1142852</v>
       </c>
     </row>
     <row r="202" spans="2:22" x14ac:dyDescent="0.25">
@@ -54207,16 +54207,16 @@
         <v>975569</v>
       </c>
       <c r="S202">
-        <v>0</v>
+        <v>0.14437854300194891</v>
       </c>
       <c r="T202">
-        <v>0</v>
+        <v>1504050</v>
       </c>
       <c r="U202">
-        <v>0</v>
+        <v>2686190</v>
       </c>
       <c r="V202">
-        <v>0</v>
+        <v>1182140</v>
       </c>
     </row>
     <row r="203" spans="2:22" x14ac:dyDescent="0.25">
@@ -54272,16 +54272,16 @@
         <v>976480</v>
       </c>
       <c r="S203">
-        <v>0</v>
+        <v>0.33052511899586529</v>
       </c>
       <c r="T203">
-        <v>0</v>
+        <v>3091819</v>
       </c>
       <c r="U203">
-        <v>0</v>
+        <v>4225503</v>
       </c>
       <c r="V203">
-        <v>0</v>
+        <v>1133684</v>
       </c>
     </row>
     <row r="204" spans="2:22" x14ac:dyDescent="0.25">
@@ -54337,16 +54337,16 @@
         <v>1045336</v>
       </c>
       <c r="S204">
-        <v>0</v>
+        <v>0.14728117900085641</v>
       </c>
       <c r="T204">
-        <v>0</v>
+        <v>1530469</v>
       </c>
       <c r="U204">
-        <v>0</v>
+        <v>2723353</v>
       </c>
       <c r="V204">
-        <v>0</v>
+        <v>1192884</v>
       </c>
     </row>
     <row r="205" spans="2:22" x14ac:dyDescent="0.25">
@@ -54402,16 +54402,16 @@
         <v>960659</v>
       </c>
       <c r="S205">
-        <v>0</v>
+        <v>0.1142329840004095</v>
       </c>
       <c r="T205">
-        <v>0</v>
+        <v>1530345</v>
       </c>
       <c r="U205">
-        <v>0</v>
+        <v>2726925</v>
       </c>
       <c r="V205">
-        <v>0</v>
+        <v>1196580</v>
       </c>
     </row>
     <row r="206" spans="2:22" x14ac:dyDescent="0.25">
@@ -54467,16 +54467,16 @@
         <v>958343</v>
       </c>
       <c r="S206">
-        <v>0</v>
+        <v>0.13513404400146101</v>
       </c>
       <c r="T206">
-        <v>0</v>
+        <v>1518447</v>
       </c>
       <c r="U206">
-        <v>0</v>
+        <v>2716411</v>
       </c>
       <c r="V206">
-        <v>0</v>
+        <v>1197964</v>
       </c>
     </row>
     <row r="207" spans="2:22" x14ac:dyDescent="0.25">
@@ -54532,16 +54532,16 @@
         <v>993026</v>
       </c>
       <c r="S207">
-        <v>0</v>
+        <v>0.18811815499793741</v>
       </c>
       <c r="T207">
-        <v>0</v>
+        <v>1539578</v>
       </c>
       <c r="U207">
-        <v>0</v>
+        <v>2733238</v>
       </c>
       <c r="V207">
-        <v>0</v>
+        <v>1193660</v>
       </c>
     </row>
     <row r="208" spans="2:22" x14ac:dyDescent="0.25">
@@ -54597,16 +54597,16 @@
         <v>985724</v>
       </c>
       <c r="S208">
-        <v>0</v>
+        <v>0.1222534370026551</v>
       </c>
       <c r="T208">
-        <v>0</v>
+        <v>1497289</v>
       </c>
       <c r="U208">
-        <v>0</v>
+        <v>2677453</v>
       </c>
       <c r="V208">
-        <v>0</v>
+        <v>1180164</v>
       </c>
     </row>
     <row r="209" spans="2:26" x14ac:dyDescent="0.25">
@@ -54662,16 +54662,16 @@
         <v>982215</v>
       </c>
       <c r="S209">
-        <v>0</v>
+        <v>0.1697136170041631</v>
       </c>
       <c r="T209">
-        <v>0</v>
+        <v>1506301</v>
       </c>
       <c r="U209">
-        <v>0</v>
+        <v>2698945</v>
       </c>
       <c r="V209">
-        <v>0</v>
+        <v>1192644</v>
       </c>
     </row>
     <row r="210" spans="2:26" x14ac:dyDescent="0.25">
@@ -54727,16 +54727,16 @@
         <v>995262</v>
       </c>
       <c r="S210">
-        <v>0</v>
+        <v>0.1164504799962742</v>
       </c>
       <c r="T210">
-        <v>0</v>
+        <v>1511266</v>
       </c>
       <c r="U210">
-        <v>0</v>
+        <v>2705110</v>
       </c>
       <c r="V210">
-        <v>0</v>
+        <v>1193844</v>
       </c>
     </row>
     <row r="211" spans="2:26" x14ac:dyDescent="0.25">
@@ -54792,16 +54792,16 @@
         <v>978796</v>
       </c>
       <c r="S211">
-        <v>0</v>
+        <v>0.1318031409900868</v>
       </c>
       <c r="T211">
-        <v>0</v>
+        <v>1517588</v>
       </c>
       <c r="U211">
-        <v>0</v>
+        <v>2711312</v>
       </c>
       <c r="V211">
-        <v>0</v>
+        <v>1193724</v>
       </c>
     </row>
     <row r="212" spans="2:26" x14ac:dyDescent="0.25">
@@ -54857,16 +54857,16 @@
         <v>980874</v>
       </c>
       <c r="S212">
-        <v>0</v>
+        <v>0.11640079600329049</v>
       </c>
       <c r="T212">
-        <v>0</v>
+        <v>1522907</v>
       </c>
       <c r="U212">
-        <v>0</v>
+        <v>2716719</v>
       </c>
       <c r="V212">
-        <v>0</v>
+        <v>1193812</v>
       </c>
     </row>
     <row r="213" spans="2:26" x14ac:dyDescent="0.25">
@@ -54922,16 +54922,16 @@
         <v>979674</v>
       </c>
       <c r="S213">
-        <v>0</v>
+        <v>0.29973762299050583</v>
       </c>
       <c r="T213">
-        <v>0</v>
+        <v>1482001</v>
       </c>
       <c r="U213">
-        <v>0</v>
+        <v>2673093</v>
       </c>
       <c r="V213">
-        <v>0</v>
+        <v>1191092</v>
       </c>
     </row>
     <row r="214" spans="2:26" x14ac:dyDescent="0.25">
@@ -54987,16 +54987,16 @@
         <v>986592</v>
       </c>
       <c r="S214">
-        <v>0</v>
+        <v>0.3962922200007597</v>
       </c>
       <c r="T214">
-        <v>0</v>
+        <v>2559955</v>
       </c>
       <c r="U214">
-        <v>0</v>
+        <v>3704238</v>
       </c>
       <c r="V214">
-        <v>0</v>
+        <v>1144283</v>
       </c>
     </row>
     <row r="215" spans="2:26" x14ac:dyDescent="0.25">
@@ -55052,16 +55052,16 @@
         <v>968809</v>
       </c>
       <c r="S215">
-        <v>0</v>
+        <v>0.26701295800739899</v>
       </c>
       <c r="T215">
-        <v>0</v>
+        <v>1491414</v>
       </c>
       <c r="U215">
-        <v>0</v>
+        <v>2683938</v>
       </c>
       <c r="V215">
-        <v>0</v>
+        <v>1192524</v>
       </c>
     </row>
     <row r="216" spans="2:26" x14ac:dyDescent="0.25">
@@ -55117,16 +55117,16 @@
         <v>980281</v>
       </c>
       <c r="S216">
-        <v>0</v>
+        <v>0.12580112599243881</v>
       </c>
       <c r="T216">
-        <v>0</v>
+        <v>1540853</v>
       </c>
       <c r="U216">
-        <v>0</v>
+        <v>2722458</v>
       </c>
       <c r="V216">
-        <v>0</v>
+        <v>1181605</v>
       </c>
     </row>
     <row r="217" spans="2:26" x14ac:dyDescent="0.25">
@@ -55182,16 +55182,16 @@
         <v>989253</v>
       </c>
       <c r="S217">
-        <v>0</v>
+        <v>0.1478106860013213</v>
       </c>
       <c r="T217">
-        <v>0</v>
+        <v>1514255</v>
       </c>
       <c r="U217">
-        <v>0</v>
+        <v>2692915</v>
       </c>
       <c r="V217">
-        <v>0</v>
+        <v>1178660</v>
       </c>
     </row>
     <row r="218" spans="2:26" x14ac:dyDescent="0.25">
@@ -55247,16 +55247,16 @@
         <v>1086520</v>
       </c>
       <c r="S218">
-        <v>0</v>
+        <v>0.13690612200298349</v>
       </c>
       <c r="T218">
-        <v>0</v>
+        <v>1537417</v>
       </c>
       <c r="U218">
-        <v>0</v>
+        <v>2734125</v>
       </c>
       <c r="V218">
-        <v>0</v>
+        <v>1196708</v>
       </c>
     </row>
     <row r="219" spans="2:26" x14ac:dyDescent="0.25">
@@ -55312,16 +55312,16 @@
         <v>991466</v>
       </c>
       <c r="S219">
-        <v>0</v>
+        <v>0.21710485999938101</v>
       </c>
       <c r="T219">
-        <v>0</v>
+        <v>1486376</v>
       </c>
       <c r="U219">
-        <v>0</v>
+        <v>2655220</v>
       </c>
       <c r="V219">
-        <v>0</v>
+        <v>1168844</v>
       </c>
     </row>
     <row r="220" spans="2:26" x14ac:dyDescent="0.25">
@@ -55377,16 +55377,16 @@
         <v>992545</v>
       </c>
       <c r="S220">
-        <v>0</v>
+        <v>0.1322356049931841</v>
       </c>
       <c r="T220">
-        <v>0</v>
+        <v>1529085</v>
       </c>
       <c r="U220">
-        <v>0</v>
+        <v>2727473</v>
       </c>
       <c r="V220">
-        <v>0</v>
+        <v>1198388</v>
       </c>
     </row>
     <row r="221" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -55442,16 +55442,16 @@
         <v>990193</v>
       </c>
       <c r="S221">
-        <v>0</v>
+        <v>0.17007742299756501</v>
       </c>
       <c r="T221">
-        <v>0</v>
+        <v>1445381</v>
       </c>
       <c r="U221">
-        <v>0</v>
+        <v>2622129</v>
       </c>
       <c r="V221">
-        <v>0</v>
+        <v>1176748</v>
       </c>
     </row>
     <row r="222" spans="2:26" x14ac:dyDescent="0.25">
@@ -55658,19 +55658,19 @@
       </c>
       <c r="S224" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.18222005424023111</v>
       </c>
       <c r="T224" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1691211.96</v>
       </c>
       <c r="U224" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2870298.23</v>
       </c>
       <c r="V224" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1179086.27</v>
       </c>
     </row>
     <row r="225" spans="2:22" x14ac:dyDescent="0.25">
@@ -55743,29 +55743,41 @@
       </c>
       <c r="S225" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.13952540499872157</v>
       </c>
       <c r="T225" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1518755.5</v>
       </c>
       <c r="U225" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2706518.5</v>
       </c>
       <c r="V225" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1181522</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W119:Z119"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="G119:J119"/>
+    <mergeCell ref="K119:N119"/>
+    <mergeCell ref="O119:R119"/>
+    <mergeCell ref="S119:V119"/>
+    <mergeCell ref="W117:Z117"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="G118:J118"/>
+    <mergeCell ref="K118:N118"/>
+    <mergeCell ref="O118:R118"/>
+    <mergeCell ref="S118:V118"/>
+    <mergeCell ref="W118:Z118"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="K117:N117"/>
+    <mergeCell ref="O117:R117"/>
+    <mergeCell ref="S117:V117"/>
     <mergeCell ref="W4:Z4"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:J3"/>
@@ -55778,24 +55790,12 @@
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W117:Z117"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="G118:J118"/>
-    <mergeCell ref="K118:N118"/>
-    <mergeCell ref="O118:R118"/>
-    <mergeCell ref="S118:V118"/>
-    <mergeCell ref="W118:Z118"/>
-    <mergeCell ref="C117:F117"/>
-    <mergeCell ref="G117:J117"/>
-    <mergeCell ref="K117:N117"/>
-    <mergeCell ref="O117:R117"/>
-    <mergeCell ref="S117:V117"/>
-    <mergeCell ref="W119:Z119"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="G119:J119"/>
-    <mergeCell ref="K119:N119"/>
-    <mergeCell ref="O119:R119"/>
-    <mergeCell ref="S119:V119"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -55855,40 +55855,40 @@
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="33">
         <v>50</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="39">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="33">
         <v>100</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="39">
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="33">
         <v>250</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="39">
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="33">
         <v>500</v>
       </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="39">
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="33">
         <v>700</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
@@ -55899,19 +55899,19 @@
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="35">
         <v>50</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="38"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="35">
         <v>100</v>
       </c>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
+      <c r="N4" s="38"/>
       <c r="O4" s="35">
         <v>200</v>
       </c>
@@ -55924,49 +55924,49 @@
       <c r="T4" s="36"/>
       <c r="U4" s="36"/>
       <c r="V4" s="36"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
     </row>
     <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>2</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="31">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="30">
         <v>5</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="31">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="30">
         <v>8</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="31">
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="30">
         <v>10</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="31">
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="30">
         <v>20</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="24"/>
@@ -62922,40 +62922,40 @@
       <c r="B117" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="39">
+      <c r="C117" s="33">
         <v>50</v>
       </c>
-      <c r="D117" s="40"/>
-      <c r="E117" s="40"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="39">
+      <c r="D117" s="34"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="33">
         <v>100</v>
       </c>
-      <c r="H117" s="40"/>
-      <c r="I117" s="40"/>
-      <c r="J117" s="42"/>
-      <c r="K117" s="39">
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
+      <c r="J117" s="40"/>
+      <c r="K117" s="33">
         <v>250</v>
       </c>
-      <c r="L117" s="40"/>
-      <c r="M117" s="40"/>
-      <c r="N117" s="41"/>
-      <c r="O117" s="39">
+      <c r="L117" s="34"/>
+      <c r="M117" s="34"/>
+      <c r="N117" s="37"/>
+      <c r="O117" s="33">
         <v>500</v>
       </c>
-      <c r="P117" s="40"/>
-      <c r="Q117" s="40"/>
-      <c r="R117" s="40"/>
-      <c r="S117" s="39">
+      <c r="P117" s="34"/>
+      <c r="Q117" s="34"/>
+      <c r="R117" s="34"/>
+      <c r="S117" s="33">
         <v>700</v>
       </c>
-      <c r="T117" s="40"/>
-      <c r="U117" s="40"/>
-      <c r="V117" s="40"/>
-      <c r="W117" s="30"/>
-      <c r="X117" s="30"/>
-      <c r="Y117" s="30"/>
-      <c r="Z117" s="30"/>
+      <c r="T117" s="34"/>
+      <c r="U117" s="34"/>
+      <c r="V117" s="34"/>
+      <c r="W117" s="32"/>
+      <c r="X117" s="32"/>
+      <c r="Y117" s="32"/>
+      <c r="Z117" s="32"/>
     </row>
     <row r="118" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
@@ -62966,19 +62966,19 @@
       </c>
       <c r="D118" s="36"/>
       <c r="E118" s="36"/>
-      <c r="F118" s="37"/>
+      <c r="F118" s="38"/>
       <c r="G118" s="35">
         <v>50</v>
       </c>
       <c r="H118" s="36"/>
       <c r="I118" s="36"/>
-      <c r="J118" s="38"/>
+      <c r="J118" s="41"/>
       <c r="K118" s="35">
         <v>100</v>
       </c>
       <c r="L118" s="36"/>
       <c r="M118" s="36"/>
-      <c r="N118" s="37"/>
+      <c r="N118" s="38"/>
       <c r="O118" s="35">
         <v>200</v>
       </c>
@@ -62991,49 +62991,49 @@
       <c r="T118" s="36"/>
       <c r="U118" s="36"/>
       <c r="V118" s="36"/>
-      <c r="W118" s="30"/>
-      <c r="X118" s="30"/>
-      <c r="Y118" s="30"/>
-      <c r="Z118" s="30"/>
+      <c r="W118" s="32"/>
+      <c r="X118" s="32"/>
+      <c r="Y118" s="32"/>
+      <c r="Z118" s="32"/>
     </row>
     <row r="119" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="31">
+      <c r="C119" s="30">
         <v>2</v>
       </c>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="31">
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="30">
         <v>5</v>
       </c>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="31">
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="42"/>
+      <c r="K119" s="30">
         <v>8</v>
       </c>
-      <c r="L119" s="32"/>
-      <c r="M119" s="32"/>
-      <c r="N119" s="33"/>
-      <c r="O119" s="31">
+      <c r="L119" s="31"/>
+      <c r="M119" s="31"/>
+      <c r="N119" s="39"/>
+      <c r="O119" s="30">
         <v>10</v>
       </c>
-      <c r="P119" s="32"/>
-      <c r="Q119" s="32"/>
-      <c r="R119" s="32"/>
-      <c r="S119" s="31">
+      <c r="P119" s="31"/>
+      <c r="Q119" s="31"/>
+      <c r="R119" s="31"/>
+      <c r="S119" s="30">
         <v>20</v>
       </c>
-      <c r="T119" s="32"/>
-      <c r="U119" s="32"/>
-      <c r="V119" s="32"/>
-      <c r="W119" s="30"/>
-      <c r="X119" s="30"/>
-      <c r="Y119" s="30"/>
-      <c r="Z119" s="30"/>
+      <c r="T119" s="31"/>
+      <c r="U119" s="31"/>
+      <c r="V119" s="31"/>
+      <c r="W119" s="32"/>
+      <c r="X119" s="32"/>
+      <c r="Y119" s="32"/>
+      <c r="Z119" s="32"/>
     </row>
     <row r="120" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B120" s="24"/>
@@ -69975,6 +69975,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W117:Z117"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="K117:N117"/>
+    <mergeCell ref="O117:R117"/>
+    <mergeCell ref="S117:V117"/>
     <mergeCell ref="W119:Z119"/>
     <mergeCell ref="C118:F118"/>
     <mergeCell ref="G118:J118"/>
@@ -69987,30 +70011,6 @@
     <mergeCell ref="K119:N119"/>
     <mergeCell ref="O119:R119"/>
     <mergeCell ref="S119:V119"/>
-    <mergeCell ref="W117:Z117"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="C117:F117"/>
-    <mergeCell ref="G117:J117"/>
-    <mergeCell ref="K117:N117"/>
-    <mergeCell ref="O117:R117"/>
-    <mergeCell ref="S117:V117"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
